--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_22_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2558174.935407673</v>
+        <v>-2559779.353334005</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8983154.091635669</v>
+        <v>8983154.091635671</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.9455259660928</v>
+        <v>62.20712023342509</v>
       </c>
       <c r="C11" t="n">
-        <v>237.4845760736198</v>
+        <v>237.4845760736199</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8947259232952</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>254.142054374874</v>
+        <v>254.1420543748741</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>279.0877300443238</v>
       </c>
       <c r="G11" t="n">
-        <v>284.7244505358283</v>
+        <v>284.7244505358285</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>183.1136930274268</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.65528330212891</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>83.09443458014339</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>108.0074426938025</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.74486795247958</v>
+        <v>38.74486795247968</v>
       </c>
       <c r="C12" t="n">
-        <v>44.92018329092798</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>19.65674986725099</v>
+        <v>19.65674986725109</v>
       </c>
       <c r="E12" t="n">
-        <v>29.85676475801318</v>
+        <v>29.85676475801328</v>
       </c>
       <c r="F12" t="n">
-        <v>17.28089669599612</v>
+        <v>17.28089669599622</v>
       </c>
       <c r="G12" t="n">
-        <v>21.04217398204504</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H12" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.00095315743243</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.475382974551579</v>
       </c>
       <c r="S12" t="n">
-        <v>143.9556929504599</v>
+        <v>16.16737725307228</v>
       </c>
       <c r="T12" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8431737758271</v>
+        <v>98.05485807843942</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>123.9066674635318</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>77.98466950608972</v>
+        <v>91.52012778685848</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.8943800799166</v>
+        <v>77.8943800799167</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454954</v>
+        <v>52.04366448454964</v>
       </c>
       <c r="C13" t="n">
-        <v>39.45850540124007</v>
+        <v>39.45850540124017</v>
       </c>
       <c r="D13" t="n">
-        <v>20.8271573208246</v>
+        <v>20.8271573208247</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>18.64564694918151</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554349</v>
+        <v>17.63273232554359</v>
       </c>
       <c r="G13" t="n">
-        <v>54.31350661293917</v>
+        <v>38.95117859219392</v>
       </c>
       <c r="H13" t="n">
-        <v>23.3120168340347</v>
+        <v>23.3120168340348</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.4183107301522</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T13" t="n">
-        <v>94.81001934569125</v>
+        <v>110.1723473664355</v>
       </c>
       <c r="U13" t="n">
-        <v>158.4624508371644</v>
+        <v>158.4624508371645</v>
       </c>
       <c r="V13" t="n">
-        <v>124.3493276264402</v>
+        <v>124.3493276264403</v>
       </c>
       <c r="W13" t="n">
-        <v>158.7346826392032</v>
+        <v>158.7346826392034</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164939</v>
+        <v>97.92133969164949</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.79633765470703</v>
+        <v>90.79633765470713</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.9455259660929</v>
+        <v>254.945525966093</v>
       </c>
       <c r="C14" t="n">
-        <v>237.4845760736198</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>226.8947259232953</v>
       </c>
       <c r="E14" t="n">
-        <v>244.5173416696315</v>
+        <v>254.1420543748742</v>
       </c>
       <c r="F14" t="n">
-        <v>279.0877300443237</v>
+        <v>139.7208400167275</v>
       </c>
       <c r="G14" t="n">
-        <v>284.7244505358284</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>183.1136930274268</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>83.09443458014336</v>
+        <v>83.09443458014343</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.9427849810814</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,19 +1686,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>148.2430041116503</v>
+        <v>148.2430041116514</v>
       </c>
       <c r="D15" t="n">
-        <v>19.65674986725107</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>29.85676475801326</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>17.28089669599619</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>8.062435227577335</v>
+        <v>8.062435227577406</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>7.475382974551579</v>
       </c>
       <c r="S15" t="n">
-        <v>16.16737725307225</v>
+        <v>16.16737725307232</v>
       </c>
       <c r="T15" t="n">
-        <v>66.3595175020492</v>
+        <v>66.35951750204927</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8431737758271</v>
+        <v>98.05485807843947</v>
       </c>
       <c r="V15" t="n">
-        <v>105.0122714520376</v>
+        <v>105.0122714520377</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>123.906667463532</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>77.98466950608986</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.89438007991667</v>
+        <v>77.89438007991674</v>
       </c>
     </row>
     <row r="16">
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454961</v>
+        <v>52.04366448454968</v>
       </c>
       <c r="C16" t="n">
-        <v>39.45850540124015</v>
+        <v>39.45850540124022</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082467</v>
+        <v>20.82715732082474</v>
       </c>
       <c r="E16" t="n">
-        <v>18.64564694918148</v>
+        <v>18.64564694918155</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>17.63273232554363</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95117859219389</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H16" t="n">
-        <v>33.79515910772341</v>
+        <v>23.31201683403484</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.879185747056155</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015226</v>
+        <v>74.41831073015234</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569132</v>
+        <v>110.1723473664351</v>
       </c>
       <c r="U16" t="n">
-        <v>158.4624508371644</v>
+        <v>158.4624508371645</v>
       </c>
       <c r="V16" t="n">
-        <v>124.3493276264403</v>
+        <v>124.3493276264404</v>
       </c>
       <c r="W16" t="n">
-        <v>158.7346826392033</v>
+        <v>158.7346826392034</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164946</v>
+        <v>97.92133969164954</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.7963376547071</v>
+        <v>90.79633765470717</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>139.8053726064067</v>
+        <v>139.8053726064068</v>
       </c>
       <c r="C17" t="n">
         <v>122.3444227139337</v>
@@ -1850,16 +1850,16 @@
         <v>111.7545725636091</v>
       </c>
       <c r="E17" t="n">
-        <v>139.0019010151879</v>
+        <v>139.001901015188</v>
       </c>
       <c r="F17" t="n">
         <v>163.9475766846376</v>
       </c>
       <c r="G17" t="n">
-        <v>169.5842971761422</v>
+        <v>169.5842971761423</v>
       </c>
       <c r="H17" t="n">
-        <v>67.9735396677406</v>
+        <v>67.97353966774062</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.193986148209136</v>
+        <v>8.193986148209177</v>
       </c>
       <c r="V17" t="n">
-        <v>84.82378941306106</v>
+        <v>84.82378941306109</v>
       </c>
       <c r="W17" t="n">
         <v>106.3124996603392</v>
@@ -1910,7 +1910,7 @@
         <v>126.8026316213952</v>
       </c>
       <c r="Y17" t="n">
-        <v>143.3094695989783</v>
+        <v>143.3094695989798</v>
       </c>
     </row>
     <row r="18">
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>88.05106717826847</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1977,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8431737758271</v>
+        <v>175.3780702068057</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>8.766514103845793</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.305065519261022</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.879185747056155</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U19" t="n">
         <v>286.2507665345522</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>9.209174266754189</v>
       </c>
       <c r="W19" t="n">
-        <v>224.4149440945498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139.8053726064067</v>
+        <v>139.8053726064068</v>
       </c>
       <c r="C20" t="n">
         <v>122.3444227139337</v>
@@ -2087,16 +2087,16 @@
         <v>111.7545725636091</v>
       </c>
       <c r="E20" t="n">
-        <v>139.0019010151879</v>
+        <v>139.001901015188</v>
       </c>
       <c r="F20" t="n">
         <v>163.9475766846376</v>
       </c>
       <c r="G20" t="n">
-        <v>169.5842971761422</v>
+        <v>169.5842971761423</v>
       </c>
       <c r="H20" t="n">
-        <v>67.9735396677406</v>
+        <v>67.97353966774062</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.193986148209136</v>
+        <v>8.193986148209165</v>
       </c>
       <c r="V20" t="n">
-        <v>84.82378941306106</v>
+        <v>84.82378941306109</v>
       </c>
       <c r="W20" t="n">
         <v>106.3124996603392</v>
@@ -2147,7 +2147,7 @@
         <v>126.8026316213952</v>
       </c>
       <c r="Y20" t="n">
-        <v>143.3094695989797</v>
+        <v>143.3094695989798</v>
       </c>
     </row>
     <row r="21">
@@ -2163,22 +2163,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.00095315743242</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>7.475382974551579</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>100.7679664129549</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>141.1857419657799</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>8.766514103845793</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.20662642754</v>
+        <v>14.67629104821161</v>
       </c>
       <c r="T22" t="n">
-        <v>222.598335043079</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2507665345522</v>
       </c>
       <c r="V22" t="n">
-        <v>67.7186282904577</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>43.59452927951716</v>
+        <v>43.59452927951719</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>139.8053726064067</v>
+        <v>139.8053726064068</v>
       </c>
       <c r="C23" t="n">
         <v>122.3444227139337</v>
@@ -2324,16 +2324,16 @@
         <v>111.7545725636091</v>
       </c>
       <c r="E23" t="n">
-        <v>139.0019010151879</v>
+        <v>139.001901015188</v>
       </c>
       <c r="F23" t="n">
         <v>163.9475766846376</v>
       </c>
       <c r="G23" t="n">
-        <v>169.5842971761422</v>
+        <v>169.5842971761423</v>
       </c>
       <c r="H23" t="n">
-        <v>67.9735396677406</v>
+        <v>67.97353966774062</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.193986148209136</v>
+        <v>8.193986148209165</v>
       </c>
       <c r="V23" t="n">
-        <v>84.82378941306106</v>
+        <v>84.82378941306109</v>
       </c>
       <c r="W23" t="n">
         <v>106.3124996603392</v>
@@ -2384,7 +2384,7 @@
         <v>126.8026316213952</v>
       </c>
       <c r="Y23" t="n">
-        <v>143.3094695989797</v>
+        <v>143.3094695989798</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,16 +2406,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.00095315743242</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.216059375693728</v>
+        <v>7.475382974551579</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>140.5082386776787</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>117.8149057650245</v>
       </c>
       <c r="J25" t="n">
-        <v>4.879185747056155</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>222.598335043079</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2507665345522</v>
+        <v>43.32229747747832</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>9.209174266754189</v>
       </c>
       <c r="W25" t="n">
-        <v>67.62655130962875</v>
+        <v>226.7127855878066</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267.5936883037945</v>
+        <v>267.5936883037944</v>
       </c>
       <c r="C26" t="n">
         <v>250.1327384113214</v>
@@ -2561,13 +2561,13 @@
         <v>239.5428882609968</v>
       </c>
       <c r="E26" t="n">
-        <v>266.7902167125757</v>
+        <v>266.7902167125756</v>
       </c>
       <c r="F26" t="n">
         <v>291.7358923820253</v>
       </c>
       <c r="G26" t="n">
-        <v>297.37261287353</v>
+        <v>297.3726128735299</v>
       </c>
       <c r="H26" t="n">
         <v>195.7618553651283</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983054</v>
+        <v>30.3034456398305</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784493</v>
+        <v>95.74259691784489</v>
       </c>
       <c r="U26" t="n">
         <v>135.9823018455969</v>
       </c>
       <c r="V26" t="n">
-        <v>212.6121051104488</v>
+        <v>212.6121051104487</v>
       </c>
       <c r="W26" t="n">
-        <v>234.1008153577269</v>
+        <v>234.1008153577268</v>
       </c>
       <c r="X26" t="n">
         <v>254.5909473187829</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.0977852963675</v>
+        <v>271.0977852963674</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225119</v>
+        <v>64.69182682225114</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894172</v>
+        <v>52.10666773894168</v>
       </c>
       <c r="D28" t="n">
-        <v>33.47531965852625</v>
+        <v>33.4753196585262</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688306</v>
+        <v>31.29380928688302</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324514</v>
+        <v>30.28089466324509</v>
       </c>
       <c r="G28" t="n">
-        <v>51.59934092989547</v>
+        <v>51.59934092989543</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173635</v>
+        <v>35.96017917173631</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338424</v>
+        <v>2.674752405338381</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.881918465969456</v>
+        <v>5.881918465969413</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785385</v>
+        <v>87.06647306785379</v>
       </c>
       <c r="T28" t="n">
         <v>107.4581816833929</v>
@@ -2770,16 +2770,16 @@
         <v>171.110613174866</v>
       </c>
       <c r="V28" t="n">
-        <v>136.9974899641419</v>
+        <v>136.9974899641418</v>
       </c>
       <c r="W28" t="n">
-        <v>171.3828449769049</v>
+        <v>171.3828449769048</v>
       </c>
       <c r="X28" t="n">
         <v>110.569502029351</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.4444999924087</v>
+        <v>103.4444999924086</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2792,22 @@
         <v>267.5936883037944</v>
       </c>
       <c r="C29" t="n">
-        <v>250.1327384113214</v>
+        <v>250.1327384113213</v>
       </c>
       <c r="D29" t="n">
-        <v>239.5428882609968</v>
+        <v>239.5428882609967</v>
       </c>
       <c r="E29" t="n">
         <v>266.7902167125756</v>
       </c>
       <c r="F29" t="n">
-        <v>291.7358923820253</v>
+        <v>291.7358923820252</v>
       </c>
       <c r="G29" t="n">
         <v>297.3726128735299</v>
       </c>
       <c r="H29" t="n">
-        <v>195.7618553651283</v>
+        <v>195.7618553651282</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983049</v>
+        <v>30.30344563983041</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784488</v>
+        <v>95.74259691784481</v>
       </c>
       <c r="U29" t="n">
-        <v>135.9823018455968</v>
+        <v>135.9823018455967</v>
       </c>
       <c r="V29" t="n">
         <v>212.6121051104487</v>
@@ -2855,7 +2855,7 @@
         <v>234.1008153577268</v>
       </c>
       <c r="X29" t="n">
-        <v>254.5909473187829</v>
+        <v>254.5909473187828</v>
       </c>
       <c r="Y29" t="n">
         <v>271.0977852963674</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.69182682225113</v>
+        <v>64.69182682225106</v>
       </c>
       <c r="C31" t="n">
-        <v>52.10666773894167</v>
+        <v>52.1066677389416</v>
       </c>
       <c r="D31" t="n">
-        <v>33.47531965852619</v>
+        <v>33.47531965852612</v>
       </c>
       <c r="E31" t="n">
-        <v>31.293809286883</v>
+        <v>31.29380928688293</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324508</v>
+        <v>30.28089466324501</v>
       </c>
       <c r="G31" t="n">
-        <v>51.59934092989541</v>
+        <v>51.59934092989534</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173629</v>
+        <v>35.96017917173622</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405338367</v>
+        <v>2.674752405338296</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465969399</v>
+        <v>5.881918465969328</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785379</v>
+        <v>87.06647306785371</v>
       </c>
       <c r="T31" t="n">
         <v>107.4581816833928</v>
       </c>
       <c r="U31" t="n">
-        <v>171.110613174866</v>
+        <v>171.1106131748659</v>
       </c>
       <c r="V31" t="n">
         <v>136.9974899641418</v>
@@ -3013,7 +3013,7 @@
         <v>171.3828449769048</v>
       </c>
       <c r="X31" t="n">
-        <v>110.569502029351</v>
+        <v>110.5695020293509</v>
       </c>
       <c r="Y31" t="n">
         <v>103.4444999924086</v>
@@ -3029,22 +3029,22 @@
         <v>267.5936883037944</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1327384113214</v>
+        <v>250.1327384113213</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609968</v>
+        <v>239.5428882609967</v>
       </c>
       <c r="E32" t="n">
         <v>266.7902167125756</v>
       </c>
       <c r="F32" t="n">
-        <v>291.7358923820253</v>
+        <v>291.7358923820252</v>
       </c>
       <c r="G32" t="n">
         <v>297.3726128735299</v>
       </c>
       <c r="H32" t="n">
-        <v>195.7618553651283</v>
+        <v>195.7618553651282</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30344563983049</v>
+        <v>30.30344563983044</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784486</v>
+        <v>95.74259691784482</v>
       </c>
       <c r="U32" t="n">
         <v>135.9823018455968</v>
@@ -3092,7 +3092,7 @@
         <v>234.1008153577268</v>
       </c>
       <c r="X32" t="n">
-        <v>254.5909473187829</v>
+        <v>254.5909473187828</v>
       </c>
       <c r="Y32" t="n">
         <v>271.0977852963674</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225112</v>
+        <v>64.69182682225107</v>
       </c>
       <c r="C34" t="n">
-        <v>52.10666773894165</v>
+        <v>52.10666773894161</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852617</v>
+        <v>33.47531965852613</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688299</v>
+        <v>31.29380928688295</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324506</v>
+        <v>30.28089466324502</v>
       </c>
       <c r="G34" t="n">
-        <v>51.5993409298954</v>
+        <v>51.59934092989536</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173628</v>
+        <v>35.96017917173624</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338353</v>
+        <v>2.67475240533831</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969385</v>
+        <v>5.881918465969342</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785376</v>
+        <v>87.06647306785374</v>
       </c>
       <c r="T34" t="n">
         <v>107.4581816833928</v>
       </c>
       <c r="U34" t="n">
-        <v>171.110613174866</v>
+        <v>171.1106131748659</v>
       </c>
       <c r="V34" t="n">
         <v>136.9974899641418</v>
@@ -3250,7 +3250,7 @@
         <v>171.3828449769048</v>
       </c>
       <c r="X34" t="n">
-        <v>110.569502029351</v>
+        <v>110.5695020293509</v>
       </c>
       <c r="Y34" t="n">
         <v>103.4444999924086</v>
@@ -3266,22 +3266,22 @@
         <v>162.7763536111306</v>
       </c>
       <c r="C35" t="n">
-        <v>145.3154037186576</v>
+        <v>145.3154037186575</v>
       </c>
       <c r="D35" t="n">
-        <v>134.725553568333</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E35" t="n">
-        <v>161.9728820199119</v>
+        <v>161.9728820199118</v>
       </c>
       <c r="F35" t="n">
-        <v>186.9185576893615</v>
+        <v>186.9185576893614</v>
       </c>
       <c r="G35" t="n">
         <v>192.5552781808661</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246451</v>
+        <v>90.94452067246442</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.16496715293305</v>
+        <v>31.16496715293297</v>
       </c>
       <c r="V35" t="n">
-        <v>107.794770417785</v>
+        <v>107.7947704177849</v>
       </c>
       <c r="W35" t="n">
-        <v>129.2834806650631</v>
+        <v>129.283480665063</v>
       </c>
       <c r="X35" t="n">
-        <v>149.7736126261191</v>
+        <v>149.773612626119</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.2804506037037</v>
+        <v>166.2804506037036</v>
       </c>
     </row>
     <row r="36">
@@ -3357,10 +3357,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>7.475382974551579</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>138.5789349005739</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>5.885685723477151</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V36" t="n">
-        <v>193.5930570349922</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>31.73749510856959</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>102.9095540916158</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>121.0220718256556</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>222.598335043079</v>
+        <v>181.1823073057442</v>
       </c>
       <c r="U37" t="n">
-        <v>66.2932784822022</v>
+        <v>286.2507665345522</v>
       </c>
       <c r="V37" t="n">
-        <v>32.18015527147807</v>
+        <v>32.18015527147799</v>
       </c>
       <c r="W37" t="n">
-        <v>66.56551028424107</v>
+        <v>66.56551028424099</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336687222</v>
+        <v>5.752167336687137</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.7763536111306</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C38" t="n">
-        <v>145.3154037186576</v>
+        <v>145.3154037186574</v>
       </c>
       <c r="D38" t="n">
-        <v>134.725553568333</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E38" t="n">
-        <v>161.9728820199119</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9185576893615</v>
+        <v>186.9185576893613</v>
       </c>
       <c r="G38" t="n">
-        <v>192.5552781808661</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246451</v>
+        <v>90.94452067246434</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293305</v>
+        <v>31.16496715293288</v>
       </c>
       <c r="V38" t="n">
-        <v>107.794770417785</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W38" t="n">
-        <v>129.2834806650631</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X38" t="n">
-        <v>149.7736126261191</v>
+        <v>149.7736126261189</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.2804506037037</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,16 +3630,16 @@
         <v>7.475382974551579</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U39" t="n">
-        <v>5.885685723477151</v>
+        <v>8.554809426692787</v>
       </c>
       <c r="V39" t="n">
-        <v>193.593057034994</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3661,25 +3661,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>151.1003325314225</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>4.879185747056155</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>222.598335043079</v>
+        <v>2.640846990728898</v>
       </c>
       <c r="U40" t="n">
-        <v>131.8321423920854</v>
+        <v>286.2507665345522</v>
       </c>
       <c r="V40" t="n">
-        <v>32.18015527147807</v>
+        <v>108.366217436965</v>
       </c>
       <c r="W40" t="n">
-        <v>66.56551028424107</v>
+        <v>66.5655102842409</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336687222</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111306</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186576</v>
+        <v>145.3154037186574</v>
       </c>
       <c r="D41" t="n">
-        <v>134.725553568333</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9728820199119</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F41" t="n">
-        <v>186.9185576893615</v>
+        <v>186.9185576893613</v>
       </c>
       <c r="G41" t="n">
-        <v>192.5552781808661</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246451</v>
+        <v>90.94452067246434</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293305</v>
+        <v>31.16496715293288</v>
       </c>
       <c r="V41" t="n">
-        <v>107.794770417785</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W41" t="n">
-        <v>129.2834806650631</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X41" t="n">
-        <v>149.7736126261191</v>
+        <v>149.7736126261189</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037037</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="42">
@@ -3828,16 +3828,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>38.00095315743242</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.475382974551579</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>5.885685723477151</v>
+        <v>5.88568572347698</v>
       </c>
       <c r="V42" t="n">
-        <v>193.5930570349922</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>39.24464988210367</v>
       </c>
     </row>
     <row r="43">
@@ -3898,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>21.65380491673847</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>51.08153746967168</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J43" t="n">
         <v>4.879185747056155</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.640846990729068</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U43" t="n">
-        <v>66.2932784822022</v>
+        <v>66.29327848220203</v>
       </c>
       <c r="V43" t="n">
-        <v>32.18015527147807</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>66.5655102842409</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111306</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186576</v>
+        <v>145.3154037186574</v>
       </c>
       <c r="D44" t="n">
-        <v>134.725553568333</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E44" t="n">
-        <v>161.9728820199119</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F44" t="n">
-        <v>186.9185576893615</v>
+        <v>186.9185576893613</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808661</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246451</v>
+        <v>90.94452067246434</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293305</v>
+        <v>31.16496715293288</v>
       </c>
       <c r="V44" t="n">
-        <v>107.794770417785</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W44" t="n">
-        <v>129.2834806650631</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X44" t="n">
-        <v>149.7736126261191</v>
+        <v>149.7736126261189</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037037</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="45">
@@ -4056,22 +4056,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>48.3903379156694</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>7.475382974551579</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>5.885685723477151</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V45" t="n">
-        <v>193.5930570349922</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>31.7374951085695</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>135.6560763755675</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,13 +4150,13 @@
         <v>166.7394942895816</v>
       </c>
       <c r="H46" t="n">
-        <v>151.1003325314225</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.879185747056155</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>80.44630568415806</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.640846990729068</v>
+        <v>2.640846990728898</v>
       </c>
       <c r="U46" t="n">
-        <v>66.2932784822022</v>
+        <v>66.29327848220203</v>
       </c>
       <c r="V46" t="n">
-        <v>32.18015527147807</v>
+        <v>32.1801552714779</v>
       </c>
       <c r="W46" t="n">
-        <v>66.56551028424107</v>
+        <v>66.5655102842409</v>
       </c>
       <c r="X46" t="n">
-        <v>5.752167336687222</v>
+        <v>5.752167336687052</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1041.906794420591</v>
+        <v>1279.590326893779</v>
       </c>
       <c r="C11" t="n">
-        <v>802.0233842452177</v>
+        <v>1039.706916718405</v>
       </c>
       <c r="D11" t="n">
-        <v>572.8367924035053</v>
+        <v>1039.706916718405</v>
       </c>
       <c r="E11" t="n">
-        <v>316.1276465702995</v>
+        <v>782.9977708851992</v>
       </c>
       <c r="F11" t="n">
-        <v>316.1276465702995</v>
+        <v>501.0909728606297</v>
       </c>
       <c r="G11" t="n">
-        <v>28.52719148360423</v>
+        <v>213.4905177739344</v>
       </c>
       <c r="H11" t="n">
         <v>28.52719148360423</v>
@@ -5039,16 +5039,16 @@
         <v>28.52719148360423</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006852</v>
+        <v>83.71911784006772</v>
       </c>
       <c r="K11" t="n">
-        <v>217.1760266634142</v>
+        <v>217.176026663414</v>
       </c>
       <c r="L11" t="n">
         <v>419.6428849838413</v>
       </c>
       <c r="M11" t="n">
-        <v>676.5957134965339</v>
+        <v>676.595713496534</v>
       </c>
       <c r="N11" t="n">
         <v>942.3201157893064</v>
@@ -5066,25 +5066,25 @@
         <v>1426.359574180212</v>
       </c>
       <c r="S11" t="n">
-        <v>1408.525954683112</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="T11" t="n">
-        <v>1408.525954683112</v>
+        <v>1342.425801877037</v>
       </c>
       <c r="U11" t="n">
-        <v>1408.525954683112</v>
+        <v>1342.425801877037</v>
       </c>
       <c r="V11" t="n">
-        <v>1408.525954683112</v>
+        <v>1342.425801877037</v>
       </c>
       <c r="W11" t="n">
-        <v>1299.427527719675</v>
+        <v>1342.425801877037</v>
       </c>
       <c r="X11" t="n">
-        <v>1299.427527719675</v>
+        <v>1342.425801877037</v>
       </c>
       <c r="Y11" t="n">
-        <v>1299.427527719675</v>
+        <v>1342.425801877037</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>299.8162690517601</v>
+        <v>407.6723038417268</v>
       </c>
       <c r="C12" t="n">
-        <v>254.4423465356712</v>
+        <v>233.2192745605998</v>
       </c>
       <c r="D12" t="n">
-        <v>234.5870436394581</v>
+        <v>213.3639716643866</v>
       </c>
       <c r="E12" t="n">
-        <v>204.4286953990408</v>
+        <v>183.2056234239691</v>
       </c>
       <c r="F12" t="n">
-        <v>186.9732441909639</v>
+        <v>165.7501722158921</v>
       </c>
       <c r="G12" t="n">
-        <v>165.718522996979</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="H12" t="n">
-        <v>66.91199265272792</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I12" t="n">
         <v>28.52719148360423</v>
       </c>
       <c r="J12" t="n">
-        <v>42.58127776197356</v>
+        <v>42.58127776197359</v>
       </c>
       <c r="K12" t="n">
-        <v>144.7567744385588</v>
+        <v>144.7567744385589</v>
       </c>
       <c r="L12" t="n">
-        <v>328.4668801148407</v>
+        <v>328.4668801148409</v>
       </c>
       <c r="M12" t="n">
-        <v>562.204776565439</v>
+        <v>562.2047765654395</v>
       </c>
       <c r="N12" t="n">
-        <v>816.5376645420145</v>
+        <v>816.5376645420151</v>
       </c>
       <c r="O12" t="n">
-        <v>1026.982773879069</v>
+        <v>1026.98277387907</v>
       </c>
       <c r="P12" t="n">
-        <v>1176.550461047347</v>
+        <v>1176.550461047348</v>
       </c>
       <c r="Q12" t="n">
         <v>1426.359574180212</v>
       </c>
       <c r="R12" t="n">
-        <v>1426.359574180212</v>
+        <v>1418.808682286725</v>
       </c>
       <c r="S12" t="n">
-        <v>1280.949783321161</v>
+        <v>1402.477998192713</v>
       </c>
       <c r="T12" t="n">
-        <v>1084.840860897488</v>
+        <v>1206.369075769039</v>
       </c>
       <c r="U12" t="n">
-        <v>856.7164429421067</v>
+        <v>1107.323764578696</v>
       </c>
       <c r="V12" t="n">
-        <v>621.5643347103639</v>
+        <v>872.1716563469536</v>
       </c>
       <c r="W12" t="n">
-        <v>496.4060847472005</v>
+        <v>617.934299618752</v>
       </c>
       <c r="X12" t="n">
-        <v>417.6336913067058</v>
+        <v>525.4897260966727</v>
       </c>
       <c r="Y12" t="n">
-        <v>338.95249930679</v>
+        <v>446.8085340967568</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>333.5553542524439</v>
+        <v>188.9587444361484</v>
       </c>
       <c r="C13" t="n">
-        <v>293.6982780895751</v>
+        <v>149.1016682732795</v>
       </c>
       <c r="D13" t="n">
-        <v>272.6607454422775</v>
+        <v>128.0641356259818</v>
       </c>
       <c r="E13" t="n">
-        <v>124.7476518598844</v>
+        <v>109.2301488086268</v>
       </c>
       <c r="F13" t="n">
-        <v>106.9368111270122</v>
+        <v>91.41930807575446</v>
       </c>
       <c r="G13" t="n">
-        <v>52.07468323515444</v>
+        <v>52.07468323515454</v>
       </c>
       <c r="H13" t="n">
         <v>28.52719148360423</v>
@@ -5203,16 +5203,16 @@
         <v>150.4262071982334</v>
       </c>
       <c r="L13" t="n">
-        <v>361.9414135537029</v>
+        <v>361.9414135537031</v>
       </c>
       <c r="M13" t="n">
-        <v>595.3436651297679</v>
+        <v>595.3436651297682</v>
       </c>
       <c r="N13" t="n">
-        <v>828.6307492648905</v>
+        <v>828.6307492648907</v>
       </c>
       <c r="O13" t="n">
-        <v>1028.092834557911</v>
+        <v>1028.092834557912</v>
       </c>
       <c r="P13" t="n">
         <v>1175.246424437234</v>
@@ -5224,25 +5224,25 @@
         <v>1193.692862342906</v>
       </c>
       <c r="S13" t="n">
-        <v>1118.522851504368</v>
+        <v>989.4437447393302</v>
       </c>
       <c r="T13" t="n">
-        <v>1022.755155195589</v>
+        <v>878.1585453792943</v>
       </c>
       <c r="U13" t="n">
-        <v>862.6920735418878</v>
+        <v>718.0954637255928</v>
       </c>
       <c r="V13" t="n">
-        <v>737.086692101039</v>
+        <v>592.4900822847439</v>
       </c>
       <c r="W13" t="n">
-        <v>576.7486288291166</v>
+        <v>432.1520190128214</v>
       </c>
       <c r="X13" t="n">
-        <v>477.8381846961374</v>
+        <v>333.2415748798421</v>
       </c>
       <c r="Y13" t="n">
-        <v>386.1247123176454</v>
+        <v>241.52810250135</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1084.905068577951</v>
+        <v>840.5184170819114</v>
       </c>
       <c r="C14" t="n">
-        <v>845.0216584025776</v>
+        <v>840.5184170819114</v>
       </c>
       <c r="D14" t="n">
-        <v>845.0216584025776</v>
+        <v>611.3318252401987</v>
       </c>
       <c r="E14" t="n">
-        <v>598.034444594869</v>
+        <v>354.6226794069925</v>
       </c>
       <c r="F14" t="n">
-        <v>316.1276465702995</v>
+        <v>213.4905177739344</v>
       </c>
       <c r="G14" t="n">
-        <v>28.5271914836042</v>
+        <v>213.4905177739344</v>
       </c>
       <c r="H14" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I14" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71911784006784</v>
+        <v>83.7191178400679</v>
       </c>
       <c r="K14" t="n">
         <v>217.1760266634141</v>
       </c>
       <c r="L14" t="n">
-        <v>419.6428849838414</v>
+        <v>419.6428849838412</v>
       </c>
       <c r="M14" t="n">
-        <v>676.5957134965342</v>
+        <v>676.595713496534</v>
       </c>
       <c r="N14" t="n">
-        <v>942.3201157893069</v>
+        <v>942.3201157893066</v>
       </c>
       <c r="O14" t="n">
-        <v>1179.900872569999</v>
+        <v>1179.900872569998</v>
       </c>
       <c r="P14" t="n">
-        <v>1348.169550998293</v>
+        <v>1348.169550998292</v>
       </c>
       <c r="Q14" t="n">
         <v>1426.359574180212</v>
       </c>
       <c r="R14" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="S14" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="T14" t="n">
-        <v>1342.425801877035</v>
+        <v>1342.425801877037</v>
       </c>
       <c r="U14" t="n">
-        <v>1342.425801877035</v>
+        <v>1342.425801877037</v>
       </c>
       <c r="V14" t="n">
-        <v>1342.425801877035</v>
+        <v>1342.425801877037</v>
       </c>
       <c r="W14" t="n">
-        <v>1342.425801877035</v>
+        <v>1342.425801877037</v>
       </c>
       <c r="X14" t="n">
-        <v>1342.425801877035</v>
+        <v>1098.039150380995</v>
       </c>
       <c r="Y14" t="n">
-        <v>1342.425801877035</v>
+        <v>1098.039150380995</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>292.2653771582715</v>
+        <v>679.5026974533869</v>
       </c>
       <c r="C15" t="n">
-        <v>142.5249689646853</v>
+        <v>529.7622892597996</v>
       </c>
       <c r="D15" t="n">
-        <v>122.6696660684721</v>
+        <v>380.8278795985483</v>
       </c>
       <c r="E15" t="n">
-        <v>92.51131782805466</v>
+        <v>221.5904245930928</v>
       </c>
       <c r="F15" t="n">
-        <v>75.05586661997769</v>
+        <v>75.05586661997779</v>
       </c>
       <c r="G15" t="n">
-        <v>66.91199265272786</v>
+        <v>66.91199265272789</v>
       </c>
       <c r="H15" t="n">
-        <v>66.91199265272786</v>
+        <v>66.91199265272789</v>
       </c>
       <c r="I15" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J15" t="n">
-        <v>42.58127776197355</v>
+        <v>42.58127776197359</v>
       </c>
       <c r="K15" t="n">
-        <v>344.503046057278</v>
+        <v>144.7567744385589</v>
       </c>
       <c r="L15" t="n">
-        <v>528.2131517335599</v>
+        <v>328.4668801148409</v>
       </c>
       <c r="M15" t="n">
-        <v>761.9510481841585</v>
+        <v>681.4908747244433</v>
       </c>
       <c r="N15" t="n">
-        <v>1016.283936160734</v>
+        <v>935.8237627010189</v>
       </c>
       <c r="O15" t="n">
-        <v>1226.729045497789</v>
+        <v>1146.268872038074</v>
       </c>
       <c r="P15" t="n">
-        <v>1376.296732666067</v>
+        <v>1295.836559206352</v>
       </c>
       <c r="Q15" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="R15" t="n">
-        <v>1418.808682286723</v>
+        <v>1418.808682286725</v>
       </c>
       <c r="S15" t="n">
-        <v>1402.477998192711</v>
+        <v>1402.477998192713</v>
       </c>
       <c r="T15" t="n">
-        <v>1335.448182534075</v>
+        <v>1335.448182534077</v>
       </c>
       <c r="U15" t="n">
-        <v>1107.323764578694</v>
+        <v>1236.402871343734</v>
       </c>
       <c r="V15" t="n">
-        <v>1001.25076311199</v>
+        <v>1130.329869877029</v>
       </c>
       <c r="W15" t="n">
-        <v>747.0134063837882</v>
+        <v>1005.171619913866</v>
       </c>
       <c r="X15" t="n">
-        <v>539.1619061782553</v>
+        <v>926.3992264733708</v>
       </c>
       <c r="Y15" t="n">
-        <v>460.4807141783395</v>
+        <v>847.718034473455</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>333.5553542524436</v>
+        <v>318.0378512011866</v>
       </c>
       <c r="C16" t="n">
-        <v>293.6982780895748</v>
+        <v>278.1807750383177</v>
       </c>
       <c r="D16" t="n">
-        <v>272.6607454422771</v>
+        <v>257.14324239102</v>
       </c>
       <c r="E16" t="n">
-        <v>253.8267586249221</v>
+        <v>238.3092555736649</v>
       </c>
       <c r="F16" t="n">
-        <v>106.9368111270117</v>
+        <v>220.4984148407926</v>
       </c>
       <c r="G16" t="n">
-        <v>67.59218628641185</v>
+        <v>52.07468323515458</v>
       </c>
       <c r="H16" t="n">
-        <v>33.45566193517607</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I16" t="n">
-        <v>33.45566193517607</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J16" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="K16" t="n">
         <v>150.4262071982334</v>
       </c>
       <c r="L16" t="n">
-        <v>361.941413553703</v>
+        <v>361.9414135537031</v>
       </c>
       <c r="M16" t="n">
-        <v>595.3436651297681</v>
+        <v>595.3436651297682</v>
       </c>
       <c r="N16" t="n">
         <v>828.6307492648907</v>
@@ -5464,22 +5464,22 @@
         <v>1118.522851504368</v>
       </c>
       <c r="T16" t="n">
-        <v>1022.755155195589</v>
+        <v>1007.237652144333</v>
       </c>
       <c r="U16" t="n">
-        <v>862.6920735418878</v>
+        <v>847.1745704906313</v>
       </c>
       <c r="V16" t="n">
-        <v>737.086692101039</v>
+        <v>721.5691890497824</v>
       </c>
       <c r="W16" t="n">
-        <v>576.7486288291166</v>
+        <v>561.2311257778598</v>
       </c>
       <c r="X16" t="n">
-        <v>477.8381846961373</v>
+        <v>462.3206816448804</v>
       </c>
       <c r="Y16" t="n">
-        <v>386.1247123176453</v>
+        <v>370.6072092663883</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.9578074646661</v>
+        <v>810.9578074646662</v>
       </c>
       <c r="C17" t="n">
-        <v>687.3775825010966</v>
+        <v>687.3775825010968</v>
       </c>
       <c r="D17" t="n">
-        <v>574.4941758711884</v>
+        <v>574.4941758711885</v>
       </c>
       <c r="E17" t="n">
-        <v>434.0882152497865</v>
+        <v>434.0882152497866</v>
       </c>
       <c r="F17" t="n">
         <v>268.4846024370212</v>
       </c>
       <c r="G17" t="n">
-        <v>97.18733256213008</v>
+        <v>97.18733256213014</v>
       </c>
       <c r="H17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="I17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="J17" t="n">
-        <v>83.7191178400679</v>
+        <v>83.71911784006807</v>
       </c>
       <c r="K17" t="n">
-        <v>217.1760266634141</v>
+        <v>217.1760266634144</v>
       </c>
       <c r="L17" t="n">
-        <v>419.6428849838408</v>
+        <v>419.6428849838417</v>
       </c>
       <c r="M17" t="n">
-        <v>676.5957134965338</v>
+        <v>676.5957134965345</v>
       </c>
       <c r="N17" t="n">
-        <v>942.3201157893066</v>
+        <v>942.3201157893071</v>
       </c>
       <c r="O17" t="n">
-        <v>1179.900872569998</v>
+        <v>1179.900872569999</v>
       </c>
       <c r="P17" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998293</v>
       </c>
       <c r="Q17" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="R17" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="S17" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="T17" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="U17" t="n">
-        <v>1418.082820495152</v>
+        <v>1418.082820495153</v>
       </c>
       <c r="V17" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128425</v>
       </c>
       <c r="W17" t="n">
-        <v>1225.015861835152</v>
+        <v>1225.015861835153</v>
       </c>
       <c r="X17" t="n">
-        <v>1096.932395550913</v>
+        <v>1096.932395550915</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.1753555519456</v>
+        <v>952.1753555519457</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>117.4676633808451</v>
+        <v>582.0401444676772</v>
       </c>
       <c r="C18" t="n">
-        <v>28.52719148360423</v>
+        <v>582.0401444676772</v>
       </c>
       <c r="D18" t="n">
-        <v>28.52719148360423</v>
+        <v>433.1057348064259</v>
       </c>
       <c r="E18" t="n">
-        <v>28.52719148360423</v>
+        <v>273.8682798009704</v>
       </c>
       <c r="F18" t="n">
-        <v>28.52719148360423</v>
+        <v>127.3337218278554</v>
       </c>
       <c r="G18" t="n">
-        <v>28.52719148360423</v>
+        <v>127.3337218278554</v>
       </c>
       <c r="H18" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="I18" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="J18" t="n">
-        <v>42.58127776197359</v>
+        <v>42.58127776197361</v>
       </c>
       <c r="K18" t="n">
-        <v>144.7567744385589</v>
+        <v>144.756774438559</v>
       </c>
       <c r="L18" t="n">
-        <v>328.4668801148409</v>
+        <v>497.7807690481616</v>
       </c>
       <c r="M18" t="n">
-        <v>562.2047765654395</v>
+        <v>731.5186654987601</v>
       </c>
       <c r="N18" t="n">
-        <v>816.5376645420151</v>
+        <v>985.8515534753358</v>
       </c>
       <c r="O18" t="n">
-        <v>1026.98277387907</v>
+        <v>1196.296662812391</v>
       </c>
       <c r="P18" t="n">
-        <v>1176.550461047348</v>
+        <v>1345.864349980669</v>
       </c>
       <c r="Q18" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="R18" t="n">
-        <v>1418.808682286725</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="S18" t="n">
-        <v>1418.808682286725</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="T18" t="n">
-        <v>1418.808682286725</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="U18" t="n">
-        <v>1190.684264331344</v>
+        <v>1241.659116421266</v>
       </c>
       <c r="V18" t="n">
-        <v>955.5321560996015</v>
+        <v>1006.507008189523</v>
       </c>
       <c r="W18" t="n">
-        <v>701.2947993713999</v>
+        <v>997.6519434381639</v>
       </c>
       <c r="X18" t="n">
-        <v>493.4432991658671</v>
+        <v>789.8004432326311</v>
       </c>
       <c r="Y18" t="n">
-        <v>285.6830004009132</v>
+        <v>582.0401444676772</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>202.391844863083</v>
+        <v>176.7353869807682</v>
       </c>
       <c r="C19" t="n">
-        <v>33.45566193517611</v>
+        <v>176.7353869807682</v>
       </c>
       <c r="D19" t="n">
-        <v>33.45566193517611</v>
+        <v>176.7353869807682</v>
       </c>
       <c r="E19" t="n">
-        <v>33.45566193517611</v>
+        <v>176.7353869807682</v>
       </c>
       <c r="F19" t="n">
-        <v>33.45566193517611</v>
+        <v>29.84543948285781</v>
       </c>
       <c r="G19" t="n">
-        <v>33.45566193517611</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="H19" t="n">
-        <v>33.45566193517611</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="I19" t="n">
-        <v>33.45566193517611</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="J19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="K19" t="n">
         <v>150.4262071982334</v>
@@ -5698,25 +5698,25 @@
         <v>1193.692862342906</v>
       </c>
       <c r="S19" t="n">
-        <v>1193.692862342906</v>
+        <v>989.4437447393302</v>
       </c>
       <c r="T19" t="n">
-        <v>1193.692862342906</v>
+        <v>764.596941665513</v>
       </c>
       <c r="U19" t="n">
-        <v>904.5506739241664</v>
+        <v>475.4547532467734</v>
       </c>
       <c r="V19" t="n">
-        <v>649.8661857182796</v>
+        <v>466.1525570177288</v>
       </c>
       <c r="W19" t="n">
-        <v>423.1844240066131</v>
+        <v>176.7353869807682</v>
       </c>
       <c r="X19" t="n">
-        <v>423.1844240066131</v>
+        <v>176.7353869807682</v>
       </c>
       <c r="Y19" t="n">
-        <v>202.391844863083</v>
+        <v>176.7353869807682</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646649</v>
+        <v>810.9578074646663</v>
       </c>
       <c r="C20" t="n">
-        <v>687.3775825010958</v>
+        <v>687.377582501097</v>
       </c>
       <c r="D20" t="n">
-        <v>574.4941758711876</v>
+        <v>574.4941758711888</v>
       </c>
       <c r="E20" t="n">
-        <v>434.0882152497857</v>
+        <v>434.0882152497868</v>
       </c>
       <c r="F20" t="n">
-        <v>268.4846024370204</v>
+        <v>268.4846024370215</v>
       </c>
       <c r="G20" t="n">
-        <v>97.18733256213008</v>
+        <v>97.18733256213014</v>
       </c>
       <c r="H20" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="I20" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006787</v>
+        <v>83.7191178400679</v>
       </c>
       <c r="K20" t="n">
-        <v>217.1760266634141</v>
+        <v>217.1760266634142</v>
       </c>
       <c r="L20" t="n">
         <v>419.6428849838414</v>
@@ -5762,7 +5762,7 @@
         <v>676.5957134965342</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893069</v>
+        <v>942.3201157893075</v>
       </c>
       <c r="O20" t="n">
         <v>1179.900872569999</v>
@@ -5771,31 +5771,31 @@
         <v>1348.169550998293</v>
       </c>
       <c r="Q20" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="R20" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="S20" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="T20" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="U20" t="n">
-        <v>1418.082820495152</v>
+        <v>1418.082820495153</v>
       </c>
       <c r="V20" t="n">
-        <v>1332.402225128423</v>
+        <v>1332.402225128425</v>
       </c>
       <c r="W20" t="n">
-        <v>1225.015861835151</v>
+        <v>1225.015861835153</v>
       </c>
       <c r="X20" t="n">
-        <v>1096.932395550914</v>
+        <v>1096.932395550915</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.1753555519443</v>
+        <v>952.1753555519456</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>202.9802207647313</v>
+        <v>932.1009556502157</v>
       </c>
       <c r="C21" t="n">
-        <v>28.52719148360423</v>
+        <v>757.6479263690887</v>
       </c>
       <c r="D21" t="n">
-        <v>28.52719148360423</v>
+        <v>608.7135167078375</v>
       </c>
       <c r="E21" t="n">
-        <v>28.52719148360423</v>
+        <v>449.4760617023819</v>
       </c>
       <c r="F21" t="n">
-        <v>28.52719148360423</v>
+        <v>302.9415037292669</v>
       </c>
       <c r="G21" t="n">
-        <v>28.52719148360423</v>
+        <v>165.718522996979</v>
       </c>
       <c r="H21" t="n">
-        <v>28.52719148360423</v>
+        <v>66.91199265272792</v>
       </c>
       <c r="I21" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="J21" t="n">
-        <v>42.58127776197359</v>
+        <v>42.58127776197361</v>
       </c>
       <c r="K21" t="n">
-        <v>144.7567744385589</v>
+        <v>344.5030460572809</v>
       </c>
       <c r="L21" t="n">
-        <v>497.7807690481613</v>
+        <v>528.2131517335629</v>
       </c>
       <c r="M21" t="n">
-        <v>731.5186654987599</v>
+        <v>761.9510481841614</v>
       </c>
       <c r="N21" t="n">
-        <v>985.8515534753355</v>
+        <v>1016.283936160737</v>
       </c>
       <c r="O21" t="n">
-        <v>1226.729045497791</v>
+        <v>1226.729045497792</v>
       </c>
       <c r="P21" t="n">
-        <v>1376.296732666069</v>
+        <v>1376.29673266607</v>
       </c>
       <c r="Q21" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180213</v>
       </c>
       <c r="R21" t="n">
-        <v>1418.808682286725</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="S21" t="n">
-        <v>1418.808682286725</v>
+        <v>1317.022857627176</v>
       </c>
       <c r="T21" t="n">
-        <v>1418.808682286725</v>
+        <v>1317.022857627176</v>
       </c>
       <c r="U21" t="n">
-        <v>1276.19682171523</v>
+        <v>1317.022857627176</v>
       </c>
       <c r="V21" t="n">
-        <v>1041.044713483488</v>
+        <v>1317.022857627176</v>
       </c>
       <c r="W21" t="n">
-        <v>786.807356755286</v>
+        <v>1308.167792875817</v>
       </c>
       <c r="X21" t="n">
-        <v>578.9558565497532</v>
+        <v>1100.316292670284</v>
       </c>
       <c r="Y21" t="n">
-        <v>371.1955577847993</v>
+        <v>1100.316292670284</v>
       </c>
     </row>
     <row r="22">
@@ -5893,22 +5893,22 @@
         <v>181.3687555175692</v>
       </c>
       <c r="E22" t="n">
-        <v>33.45566193517611</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="F22" t="n">
-        <v>33.45566193517611</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="G22" t="n">
-        <v>33.45566193517611</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="H22" t="n">
-        <v>33.45566193517611</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="I22" t="n">
-        <v>33.45566193517611</v>
+        <v>33.45566193517613</v>
       </c>
       <c r="J22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="K22" t="n">
         <v>150.4262071982334</v>
@@ -5935,19 +5935,19 @@
         <v>1193.692862342906</v>
       </c>
       <c r="S22" t="n">
-        <v>989.4437447393302</v>
+        <v>1178.868325930571</v>
       </c>
       <c r="T22" t="n">
-        <v>764.596941665513</v>
+        <v>1178.868325930571</v>
       </c>
       <c r="U22" t="n">
-        <v>475.4547532467734</v>
+        <v>889.7261375118314</v>
       </c>
       <c r="V22" t="n">
-        <v>407.0520984079272</v>
+        <v>635.0416493059446</v>
       </c>
       <c r="W22" t="n">
-        <v>363.0172203478089</v>
+        <v>591.0067712458263</v>
       </c>
       <c r="X22" t="n">
         <v>363.0172203478089</v>
@@ -5966,28 +5966,28 @@
         <v>810.9578074646658</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010968</v>
+        <v>687.3775825010963</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711885</v>
+        <v>574.4941758711882</v>
       </c>
       <c r="E23" t="n">
-        <v>434.0882152497866</v>
+        <v>434.0882152497863</v>
       </c>
       <c r="F23" t="n">
         <v>268.4846024370213</v>
       </c>
       <c r="G23" t="n">
-        <v>97.18733256213011</v>
+        <v>97.18733256213014</v>
       </c>
       <c r="H23" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="I23" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="J23" t="n">
-        <v>83.71911784006788</v>
+        <v>83.7191178400679</v>
       </c>
       <c r="K23" t="n">
         <v>217.1760266634142</v>
@@ -5996,10 +5996,10 @@
         <v>419.6428849838414</v>
       </c>
       <c r="M23" t="n">
-        <v>676.5957134965346</v>
+        <v>676.5957134965342</v>
       </c>
       <c r="N23" t="n">
-        <v>942.3201157893072</v>
+        <v>942.3201157893069</v>
       </c>
       <c r="O23" t="n">
         <v>1179.900872569999</v>
@@ -6008,7 +6008,7 @@
         <v>1348.169550998293</v>
       </c>
       <c r="Q23" t="n">
-        <v>1426.359574180213</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="R23" t="n">
         <v>1426.359574180213</v>
@@ -6023,7 +6023,7 @@
         <v>1418.082820495153</v>
       </c>
       <c r="V23" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128425</v>
       </c>
       <c r="W23" t="n">
         <v>1225.015861835152</v>
@@ -6032,7 +6032,7 @@
         <v>1096.932395550915</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.1753555519452</v>
+        <v>952.1753555519454</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>351.9146304259825</v>
+        <v>598.4104713636332</v>
       </c>
       <c r="C24" t="n">
-        <v>177.4616011448555</v>
+        <v>598.4104713636332</v>
       </c>
       <c r="D24" t="n">
-        <v>28.52719148360425</v>
+        <v>449.4760617023819</v>
       </c>
       <c r="E24" t="n">
-        <v>28.52719148360425</v>
+        <v>449.4760617023819</v>
       </c>
       <c r="F24" t="n">
-        <v>28.52719148360425</v>
+        <v>302.9415037292669</v>
       </c>
       <c r="G24" t="n">
-        <v>28.52719148360425</v>
+        <v>165.718522996979</v>
       </c>
       <c r="H24" t="n">
-        <v>28.52719148360425</v>
+        <v>66.91199265272792</v>
       </c>
       <c r="I24" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="J24" t="n">
-        <v>42.58127776197361</v>
+        <v>167.4114027489784</v>
       </c>
       <c r="K24" t="n">
-        <v>144.756774438559</v>
+        <v>344.5030460572812</v>
       </c>
       <c r="L24" t="n">
-        <v>328.4668801148409</v>
+        <v>528.2131517335631</v>
       </c>
       <c r="M24" t="n">
-        <v>681.4908747244435</v>
+        <v>761.9510481841617</v>
       </c>
       <c r="N24" t="n">
         <v>1016.283936160737</v>
@@ -6084,34 +6084,34 @@
         <v>1226.729045497792</v>
       </c>
       <c r="P24" t="n">
-        <v>1376.29673266607</v>
+        <v>1376.296732666071</v>
       </c>
       <c r="Q24" t="n">
         <v>1426.359574180213</v>
       </c>
       <c r="R24" t="n">
-        <v>1425.131231376482</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="S24" t="n">
-        <v>1425.131231376482</v>
+        <v>1418.808682286726</v>
       </c>
       <c r="T24" t="n">
-        <v>1425.131231376482</v>
+        <v>1222.699759863053</v>
       </c>
       <c r="U24" t="n">
-        <v>1425.131231376482</v>
+        <v>994.5753419076719</v>
       </c>
       <c r="V24" t="n">
-        <v>1189.979123144739</v>
+        <v>994.5753419076719</v>
       </c>
       <c r="W24" t="n">
-        <v>935.7417664165373</v>
+        <v>740.3379851794703</v>
       </c>
       <c r="X24" t="n">
-        <v>727.8902662110045</v>
+        <v>598.4104713636332</v>
       </c>
       <c r="Y24" t="n">
-        <v>520.1299674460506</v>
+        <v>598.4104713636332</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.4606172533827</v>
+        <v>462.8458259053592</v>
       </c>
       <c r="C25" t="n">
-        <v>152.4606172533827</v>
+        <v>462.8458259053592</v>
       </c>
       <c r="D25" t="n">
-        <v>152.4606172533827</v>
+        <v>462.8458259053592</v>
       </c>
       <c r="E25" t="n">
-        <v>152.4606172533827</v>
+        <v>462.8458259053592</v>
       </c>
       <c r="F25" t="n">
-        <v>152.4606172533827</v>
+        <v>315.9558784074488</v>
       </c>
       <c r="G25" t="n">
-        <v>152.4606172533827</v>
+        <v>147.5321468018109</v>
       </c>
       <c r="H25" t="n">
-        <v>152.4606172533827</v>
+        <v>147.5321468018109</v>
       </c>
       <c r="I25" t="n">
-        <v>33.45566193517612</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="J25" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360426</v>
       </c>
       <c r="K25" t="n">
         <v>150.4262071982334</v>
@@ -6172,25 +6172,25 @@
         <v>1193.692862342906</v>
       </c>
       <c r="S25" t="n">
-        <v>989.4437447393302</v>
+        <v>1193.692862342906</v>
       </c>
       <c r="T25" t="n">
-        <v>764.596941665513</v>
+        <v>1193.692862342906</v>
       </c>
       <c r="U25" t="n">
-        <v>475.4547532467734</v>
+        <v>1149.932965901009</v>
       </c>
       <c r="V25" t="n">
-        <v>220.7702650408865</v>
+        <v>1140.630769671964</v>
       </c>
       <c r="W25" t="n">
-        <v>152.4606172533827</v>
+        <v>911.6279559469067</v>
       </c>
       <c r="X25" t="n">
-        <v>152.4606172533827</v>
+        <v>683.6384050488894</v>
       </c>
       <c r="Y25" t="n">
-        <v>152.4606172533827</v>
+        <v>462.8458259053592</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.642009607694</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C26" t="n">
-        <v>1366.982677879087</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D26" t="n">
-        <v>1125.02016448414</v>
+        <v>1125.020164484141</v>
       </c>
       <c r="E26" t="n">
-        <v>855.5350970977008</v>
+        <v>855.5350970977012</v>
       </c>
       <c r="F26" t="n">
-        <v>560.8523775198975</v>
+        <v>560.8523775198978</v>
       </c>
       <c r="G26" t="n">
         <v>260.4760008799682</v>
       </c>
       <c r="H26" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="I26" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J26" t="n">
         <v>117.9286793928679</v>
@@ -6236,16 +6236,16 @@
         <v>1890.212234057637</v>
       </c>
       <c r="N26" t="n">
-        <v>2155.93663635041</v>
+        <v>2417.473801235275</v>
       </c>
       <c r="O26" t="n">
-        <v>2680.187109456694</v>
+        <v>2655.054558015967</v>
       </c>
       <c r="P26" t="n">
-        <v>2848.455787884988</v>
+        <v>2823.323236444261</v>
       </c>
       <c r="Q26" t="n">
-        <v>3136.837651820213</v>
+        <v>3111.705100379486</v>
       </c>
       <c r="R26" t="n">
         <v>3136.837651820213</v>
@@ -6260,16 +6260,16 @@
         <v>2872.162556463372</v>
       </c>
       <c r="V26" t="n">
-        <v>2657.402854331605</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W26" t="n">
-        <v>2420.937384273295</v>
+        <v>2420.937384273296</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.774811224019</v>
+        <v>2163.77481122402</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.938664460012</v>
+        <v>1889.938664460013</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>101.1215542055279</v>
       </c>
       <c r="I27" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J27" t="n">
         <v>201.6209643017783</v>
       </c>
       <c r="K27" t="n">
-        <v>303.7964609783637</v>
+        <v>565.6170456208165</v>
       </c>
       <c r="L27" t="n">
-        <v>854.6385085050703</v>
+        <v>749.3271512970985</v>
       </c>
       <c r="M27" t="n">
-        <v>1088.376404955669</v>
+        <v>1444.113060860197</v>
       </c>
       <c r="N27" t="n">
-        <v>1683.390847453602</v>
+        <v>1698.445948836773</v>
       </c>
       <c r="O27" t="n">
-        <v>1893.835956790657</v>
+        <v>2298.81475425779</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.681784912473</v>
+        <v>2566.658299770964</v>
       </c>
       <c r="Q27" t="n">
         <v>2616.721141285106</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.5256054147542</v>
+        <v>302.5256054147538</v>
       </c>
       <c r="C28" t="n">
-        <v>249.8926076986514</v>
+        <v>249.8926076986511</v>
       </c>
       <c r="D28" t="n">
-        <v>216.0791534981199</v>
+        <v>216.0791534981196</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4692451275309</v>
+        <v>184.4692451275307</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8824828414247</v>
+        <v>153.8824828414246</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7619364475909</v>
+        <v>101.7619364475908</v>
       </c>
       <c r="H28" t="n">
-        <v>65.4385231428067</v>
+        <v>65.43852314280666</v>
       </c>
       <c r="I28" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J28" t="n">
-        <v>105.6461468555937</v>
+        <v>105.646146855593</v>
       </c>
       <c r="K28" t="n">
-        <v>227.5451625702229</v>
+        <v>227.5451625702222</v>
       </c>
       <c r="L28" t="n">
-        <v>439.0603689256925</v>
+        <v>439.0603689256918</v>
       </c>
       <c r="M28" t="n">
-        <v>672.4626205017576</v>
+        <v>672.4626205017569</v>
       </c>
       <c r="N28" t="n">
-        <v>905.7497046368801</v>
+        <v>905.7497046368794</v>
       </c>
       <c r="O28" t="n">
-        <v>1105.211789929901</v>
+        <v>1105.2117899299</v>
       </c>
       <c r="P28" t="n">
         <v>1252.365379809223</v>
@@ -6406,7 +6406,7 @@
         <v>1270.811817714895</v>
       </c>
       <c r="R28" t="n">
-        <v>1264.870485931088</v>
+        <v>1264.870485931087</v>
       </c>
       <c r="S28" t="n">
         <v>1176.924553539316</v>
@@ -6415,19 +6415,19 @@
         <v>1068.380935677303</v>
       </c>
       <c r="U28" t="n">
-        <v>895.541932470368</v>
+        <v>895.5419324703673</v>
       </c>
       <c r="V28" t="n">
-        <v>757.1606294762853</v>
+        <v>757.1606294762847</v>
       </c>
       <c r="W28" t="n">
-        <v>584.0466446511289</v>
+        <v>584.0466446511283</v>
       </c>
       <c r="X28" t="n">
-        <v>472.3602789649157</v>
+        <v>472.3602789649152</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.8708850331897</v>
+        <v>367.8708850331893</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6443,46 @@
         <v>1366.982677879088</v>
       </c>
       <c r="D29" t="n">
-        <v>1125.020164484141</v>
+        <v>1125.020164484142</v>
       </c>
       <c r="E29" t="n">
-        <v>855.5350970977013</v>
+        <v>855.5350970977016</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198979</v>
+        <v>560.8523775198984</v>
       </c>
       <c r="G29" t="n">
-        <v>260.4760008799682</v>
+        <v>260.4760008799681</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="I29" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J29" t="n">
-        <v>285.3343284132209</v>
+        <v>117.9286793928679</v>
       </c>
       <c r="K29" t="n">
-        <v>739.6951956820203</v>
+        <v>251.3855882162142</v>
       </c>
       <c r="L29" t="n">
-        <v>1224.356221330651</v>
+        <v>639.8125376539236</v>
       </c>
       <c r="M29" t="n">
-        <v>1481.309049843344</v>
+        <v>1341.783764324521</v>
       </c>
       <c r="N29" t="n">
-        <v>1747.033452136116</v>
+        <v>2040.481621785158</v>
       </c>
       <c r="O29" t="n">
-        <v>2361.606388366926</v>
+        <v>2655.054558015967</v>
       </c>
       <c r="P29" t="n">
-        <v>2848.455787884988</v>
+        <v>2823.323236444261</v>
       </c>
       <c r="Q29" t="n">
-        <v>3136.837651820213</v>
+        <v>3111.705100379486</v>
       </c>
       <c r="R29" t="n">
         <v>3136.837651820213</v>
@@ -6537,7 +6537,7 @@
         <v>101.1215542055279</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J30" t="n">
         <v>201.6209643017783</v>
@@ -6546,16 +6546,16 @@
         <v>565.6170456208165</v>
       </c>
       <c r="L30" t="n">
-        <v>1116.459093147523</v>
+        <v>749.3271512970985</v>
       </c>
       <c r="M30" t="n">
-        <v>1429.057959477027</v>
+        <v>1444.113060860197</v>
       </c>
       <c r="N30" t="n">
-        <v>1683.390847453602</v>
+        <v>1998.66898840714</v>
       </c>
       <c r="O30" t="n">
-        <v>1893.835956790657</v>
+        <v>2209.114097744195</v>
       </c>
       <c r="P30" t="n">
         <v>2358.681784912473</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.5256054147538</v>
+        <v>302.5256054147533</v>
       </c>
       <c r="C31" t="n">
-        <v>249.8926076986511</v>
+        <v>249.8926076986506</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981196</v>
+        <v>216.0791534981192</v>
       </c>
       <c r="E31" t="n">
-        <v>184.4692451275307</v>
+        <v>184.4692451275304</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414245</v>
+        <v>153.8824828414243</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475908</v>
+        <v>101.7619364475906</v>
       </c>
       <c r="H31" t="n">
-        <v>65.43852314280664</v>
+        <v>65.43852314280657</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J31" t="n">
-        <v>105.646146855593</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="K31" t="n">
-        <v>227.5451625702222</v>
+        <v>184.6357687510334</v>
       </c>
       <c r="L31" t="n">
-        <v>439.0603689256918</v>
+        <v>396.1509751065031</v>
       </c>
       <c r="M31" t="n">
-        <v>672.4626205017569</v>
+        <v>672.4626205017557</v>
       </c>
       <c r="N31" t="n">
-        <v>905.7497046368794</v>
+        <v>905.7497046368783</v>
       </c>
       <c r="O31" t="n">
-        <v>1105.2117899299</v>
+        <v>1105.211789929899</v>
       </c>
       <c r="P31" t="n">
-        <v>1252.365379809223</v>
+        <v>1252.365379809222</v>
       </c>
       <c r="Q31" t="n">
-        <v>1270.811817714895</v>
+        <v>1270.811817714894</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931087</v>
+        <v>1264.870485931086</v>
       </c>
       <c r="S31" t="n">
-        <v>1176.924553539316</v>
+        <v>1176.924553539315</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.380935677303</v>
+        <v>1068.380935677302</v>
       </c>
       <c r="U31" t="n">
-        <v>895.5419324703673</v>
+        <v>895.5419324703665</v>
       </c>
       <c r="V31" t="n">
-        <v>757.1606294762847</v>
+        <v>757.1606294762839</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511283</v>
+        <v>584.0466446511276</v>
       </c>
       <c r="X31" t="n">
-        <v>472.3602789649152</v>
+        <v>472.3602789649145</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331893</v>
+        <v>367.8708850331887</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.642009607695</v>
+        <v>1619.642009607694</v>
       </c>
       <c r="C32" t="n">
-        <v>1366.982677879088</v>
+        <v>1366.982677879087</v>
       </c>
       <c r="D32" t="n">
         <v>1125.020164484141</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970977015</v>
+        <v>855.5350970977008</v>
       </c>
       <c r="F32" t="n">
-        <v>560.8523775198983</v>
+        <v>560.8523775198976</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799682</v>
+        <v>260.4760008799681</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="I32" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J32" t="n">
         <v>285.3343284132209</v>
@@ -6707,43 +6707,43 @@
         <v>1355.646656407393</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.599484920086</v>
+        <v>1691.500890596649</v>
       </c>
       <c r="N32" t="n">
-        <v>2311.297342380723</v>
+        <v>1957.225292889422</v>
       </c>
       <c r="O32" t="n">
-        <v>2865.246398769274</v>
+        <v>2571.798229120232</v>
       </c>
       <c r="P32" t="n">
-        <v>3033.515077197567</v>
+        <v>3058.647628638293</v>
       </c>
       <c r="Q32" t="n">
-        <v>3111.705100379487</v>
+        <v>3136.837651820213</v>
       </c>
       <c r="R32" t="n">
         <v>3136.837651820213</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.228110769879</v>
+        <v>3106.228110769878</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.51841691347</v>
+        <v>3009.518416913469</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.162556463372</v>
+        <v>2872.162556463371</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.402854331606</v>
+        <v>2657.402854331605</v>
       </c>
       <c r="W32" t="n">
-        <v>2420.937384273296</v>
+        <v>2420.937384273295</v>
       </c>
       <c r="X32" t="n">
-        <v>2163.77481122402</v>
+        <v>2163.774811224019</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.938664460013</v>
+        <v>1889.938664460012</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>101.1215542055279</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J33" t="n">
-        <v>201.6209643017783</v>
+        <v>76.79083931477361</v>
       </c>
       <c r="K33" t="n">
-        <v>565.6170456208165</v>
+        <v>178.966335991359</v>
       </c>
       <c r="L33" t="n">
-        <v>1116.459093147523</v>
+        <v>729.8083835180655</v>
       </c>
       <c r="M33" t="n">
-        <v>1429.057959477027</v>
+        <v>963.5462799686641</v>
       </c>
       <c r="N33" t="n">
-        <v>1683.390847453602</v>
+        <v>1293.46715136964</v>
       </c>
       <c r="O33" t="n">
         <v>1893.835956790657</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.5256054147537</v>
+        <v>302.5256054147534</v>
       </c>
       <c r="C34" t="n">
-        <v>249.892607698651</v>
+        <v>249.8926076986507</v>
       </c>
       <c r="D34" t="n">
-        <v>216.0791534981195</v>
+        <v>216.0791534981193</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275306</v>
+        <v>184.4692451275304</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414245</v>
+        <v>153.8824828414243</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7619364475908</v>
+        <v>101.7619364475907</v>
       </c>
       <c r="H34" t="n">
-        <v>65.43852314280663</v>
+        <v>65.43852314280659</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J34" t="n">
-        <v>62.73675303640426</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="K34" t="n">
-        <v>184.6357687510335</v>
+        <v>184.6357687510334</v>
       </c>
       <c r="L34" t="n">
         <v>396.1509751065031</v>
@@ -6868,40 +6868,40 @@
         <v>629.5532266825682</v>
       </c>
       <c r="N34" t="n">
-        <v>862.8403108176908</v>
+        <v>905.7497046368787</v>
       </c>
       <c r="O34" t="n">
-        <v>1062.302396110712</v>
+        <v>1105.2117899299</v>
       </c>
       <c r="P34" t="n">
-        <v>1252.365379809223</v>
+        <v>1252.365379809222</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.811817714895</v>
+        <v>1270.811817714894</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.870485931087</v>
+        <v>1264.870485931086</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539316</v>
+        <v>1176.924553539315</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.380935677303</v>
+        <v>1068.380935677302</v>
       </c>
       <c r="U34" t="n">
-        <v>895.5419324703673</v>
+        <v>895.5419324703668</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762846</v>
+        <v>757.1606294762842</v>
       </c>
       <c r="W34" t="n">
-        <v>584.0466446511282</v>
+        <v>584.0466446511277</v>
       </c>
       <c r="X34" t="n">
-        <v>472.360278964915</v>
+        <v>472.3602789649146</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331892</v>
+        <v>367.8708850331888</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.8582442291583</v>
+        <v>955.8582442291577</v>
       </c>
       <c r="C35" t="n">
-        <v>809.0750081497063</v>
+        <v>809.0750081497057</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039153</v>
+        <v>672.9885904039148</v>
       </c>
       <c r="E35" t="n">
-        <v>509.3796186666306</v>
+        <v>509.3796186666302</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5729947379825</v>
+        <v>320.5729947379823</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0727137472086</v>
+        <v>126.0727137472085</v>
       </c>
       <c r="H35" t="n">
-        <v>34.20956155280003</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I35" t="n">
-        <v>34.20956155280003</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J35" t="n">
-        <v>89.40148790926366</v>
+        <v>89.40148790926364</v>
       </c>
       <c r="K35" t="n">
-        <v>334.9040344199957</v>
+        <v>222.8583967326099</v>
       </c>
       <c r="L35" t="n">
-        <v>537.370892740423</v>
+        <v>646.2017209485099</v>
       </c>
       <c r="M35" t="n">
-        <v>960.7142169563232</v>
+        <v>903.1545494612028</v>
       </c>
       <c r="N35" t="n">
-        <v>1226.438619249096</v>
+        <v>1168.878951753975</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.019376029788</v>
+        <v>1406.459708534667</v>
       </c>
       <c r="P35" t="n">
-        <v>1632.288054458082</v>
+        <v>1607.155503017354</v>
       </c>
       <c r="Q35" t="n">
-        <v>1710.478077640001</v>
+        <v>1685.345526199274</v>
       </c>
       <c r="R35" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.47807764</v>
       </c>
       <c r="S35" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.47807764</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.47807764</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839059</v>
+        <v>1678.998312839058</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356448</v>
+        <v>1570.114706356447</v>
       </c>
       <c r="W35" t="n">
-        <v>1439.525331947293</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.238854547173</v>
+        <v>1288.238854547172</v>
       </c>
       <c r="Y35" t="n">
-        <v>1120.278803432321</v>
+        <v>1120.27880343232</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>663.3690134737489</v>
+        <v>899.3985245502878</v>
       </c>
       <c r="C36" t="n">
-        <v>488.9159841926218</v>
+        <v>724.9454952691608</v>
       </c>
       <c r="D36" t="n">
-        <v>339.9815745313705</v>
+        <v>576.0110856079095</v>
       </c>
       <c r="E36" t="n">
-        <v>180.744119525915</v>
+        <v>416.7736306024541</v>
       </c>
       <c r="F36" t="n">
-        <v>34.20956155280003</v>
+        <v>270.239072629339</v>
       </c>
       <c r="G36" t="n">
-        <v>34.20956155280003</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="H36" t="n">
-        <v>34.20956155280003</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I36" t="n">
-        <v>34.20956155280003</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J36" t="n">
-        <v>173.0937728181741</v>
+        <v>48.26364783116935</v>
       </c>
       <c r="K36" t="n">
-        <v>420.6450346585789</v>
+        <v>388.9883309774499</v>
       </c>
       <c r="L36" t="n">
-        <v>604.3551403348608</v>
+        <v>812.3316551933499</v>
       </c>
       <c r="M36" t="n">
-        <v>838.0930367854594</v>
+        <v>1046.069551643948</v>
       </c>
       <c r="N36" t="n">
-        <v>1092.425924762035</v>
+        <v>1300.402439620524</v>
       </c>
       <c r="O36" t="n">
-        <v>1302.87103409909</v>
+        <v>1510.847548957579</v>
       </c>
       <c r="P36" t="n">
-        <v>1452.438721267368</v>
+        <v>1660.415236125857</v>
       </c>
       <c r="Q36" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.47807764</v>
       </c>
       <c r="R36" t="n">
-        <v>1702.927185746515</v>
+        <v>1702.927185746513</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.927185746515</v>
+        <v>1562.948463624721</v>
       </c>
       <c r="T36" t="n">
-        <v>1702.927185746515</v>
+        <v>1562.948463624721</v>
       </c>
       <c r="U36" t="n">
-        <v>1696.982048652093</v>
+        <v>1334.82404566934</v>
       </c>
       <c r="V36" t="n">
-        <v>1501.433506192505</v>
+        <v>1099.671937437598</v>
       </c>
       <c r="W36" t="n">
-        <v>1247.196149464304</v>
+        <v>1067.613861570356</v>
       </c>
       <c r="X36" t="n">
-        <v>1039.344649258771</v>
+        <v>1067.613861570356</v>
       </c>
       <c r="Y36" t="n">
-        <v>831.5843504938168</v>
+        <v>1067.613861570356</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>475.5185206233306</v>
+        <v>621.6672458134123</v>
       </c>
       <c r="C37" t="n">
-        <v>306.5823376954237</v>
+        <v>452.7310628855054</v>
       </c>
       <c r="D37" t="n">
-        <v>306.5823376954237</v>
+        <v>452.7310628855054</v>
       </c>
       <c r="E37" t="n">
-        <v>306.5823376954237</v>
+        <v>452.7310628855054</v>
       </c>
       <c r="F37" t="n">
-        <v>306.5823376954237</v>
+        <v>305.841115387595</v>
       </c>
       <c r="G37" t="n">
-        <v>138.1586060897857</v>
+        <v>305.841115387595</v>
       </c>
       <c r="H37" t="n">
-        <v>34.20956155280003</v>
+        <v>153.2145168710066</v>
       </c>
       <c r="I37" t="n">
-        <v>34.20956155280003</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J37" t="n">
-        <v>34.20956155280003</v>
+        <v>34.2095615528</v>
       </c>
       <c r="K37" t="n">
         <v>156.1085772674292</v>
@@ -7117,28 +7117,28 @@
         <v>1199.375232412102</v>
       </c>
       <c r="R37" t="n">
-        <v>1077.13071541649</v>
+        <v>1199.375232412102</v>
       </c>
       <c r="S37" t="n">
-        <v>872.8815978129142</v>
+        <v>1199.375232412102</v>
       </c>
       <c r="T37" t="n">
-        <v>648.0347947390969</v>
+        <v>1016.362800790138</v>
       </c>
       <c r="U37" t="n">
-        <v>581.0718871813169</v>
+        <v>727.2206123713983</v>
       </c>
       <c r="V37" t="n">
-        <v>548.5666798363895</v>
+        <v>694.715405026471</v>
       </c>
       <c r="W37" t="n">
-        <v>481.3287906603884</v>
+        <v>627.47751585047</v>
       </c>
       <c r="X37" t="n">
-        <v>475.5185206233306</v>
+        <v>621.6672458134123</v>
       </c>
       <c r="Y37" t="n">
-        <v>475.5185206233306</v>
+        <v>621.6672458134123</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291601</v>
+        <v>955.8582442291578</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497079</v>
+        <v>809.0750081497058</v>
       </c>
       <c r="D38" t="n">
-        <v>672.9885904039169</v>
+        <v>672.9885904039151</v>
       </c>
       <c r="E38" t="n">
-        <v>509.3796186666322</v>
+        <v>509.3796186666306</v>
       </c>
       <c r="F38" t="n">
-        <v>320.5729947379842</v>
+        <v>320.5729947379827</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472087</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155280006</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I38" t="n">
-        <v>34.20956155280006</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J38" t="n">
-        <v>256.8071369296167</v>
+        <v>89.40148790926364</v>
       </c>
       <c r="K38" t="n">
-        <v>390.264045752963</v>
+        <v>222.8583967326099</v>
       </c>
       <c r="L38" t="n">
-        <v>592.7309040733903</v>
+        <v>425.3252550530372</v>
       </c>
       <c r="M38" t="n">
-        <v>849.6837325860831</v>
+        <v>682.27808356573</v>
       </c>
       <c r="N38" t="n">
-        <v>1226.438619249098</v>
+        <v>1105.62140778163</v>
       </c>
       <c r="O38" t="n">
-        <v>1464.01937602979</v>
+        <v>1464.019376029786</v>
       </c>
       <c r="P38" t="n">
-        <v>1632.288054458083</v>
+        <v>1632.28805445808</v>
       </c>
       <c r="Q38" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.47807764</v>
       </c>
       <c r="R38" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.47807764</v>
       </c>
       <c r="S38" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.47807764</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.47807764</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.99831283906</v>
+        <v>1678.998312839057</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.114706356449</v>
+        <v>1570.114706356447</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.525331947295</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.238854547174</v>
+        <v>1288.238854547172</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432322</v>
+        <v>1120.27880343232</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>663.3690134737489</v>
+        <v>279.5506498701661</v>
       </c>
       <c r="C39" t="n">
-        <v>488.9159841926219</v>
+        <v>279.5506498701661</v>
       </c>
       <c r="D39" t="n">
-        <v>339.9815745313706</v>
+        <v>279.5506498701661</v>
       </c>
       <c r="E39" t="n">
-        <v>180.7441195259151</v>
+        <v>279.5506498701661</v>
       </c>
       <c r="F39" t="n">
-        <v>34.20956155280006</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="G39" t="n">
-        <v>34.20956155280006</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="H39" t="n">
-        <v>34.20956155280006</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I39" t="n">
-        <v>34.20956155280006</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J39" t="n">
-        <v>173.0937728181742</v>
+        <v>173.0937728181741</v>
       </c>
       <c r="K39" t="n">
-        <v>275.2692694947595</v>
+        <v>275.2692694947594</v>
       </c>
       <c r="L39" t="n">
-        <v>458.9793751710415</v>
+        <v>698.6125937106594</v>
       </c>
       <c r="M39" t="n">
-        <v>692.71727162164</v>
+        <v>932.350490161258</v>
       </c>
       <c r="N39" t="n">
-        <v>947.0501595982155</v>
+        <v>1300.402439620524</v>
       </c>
       <c r="O39" t="n">
-        <v>1157.495268935271</v>
+        <v>1510.847548957579</v>
       </c>
       <c r="P39" t="n">
-        <v>1452.43872126737</v>
+        <v>1660.415236125857</v>
       </c>
       <c r="Q39" t="n">
-        <v>1710.478077640003</v>
+        <v>1710.47807764</v>
       </c>
       <c r="R39" t="n">
-        <v>1702.927185746516</v>
+        <v>1702.927185746513</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.927185746516</v>
+        <v>1557.517394887463</v>
       </c>
       <c r="T39" t="n">
-        <v>1702.927185746516</v>
+        <v>1361.408472463789</v>
       </c>
       <c r="U39" t="n">
-        <v>1696.982048652095</v>
+        <v>1352.767250820665</v>
       </c>
       <c r="V39" t="n">
-        <v>1501.433506192505</v>
+        <v>1117.615142588922</v>
       </c>
       <c r="W39" t="n">
-        <v>1247.196149464304</v>
+        <v>863.3777858607209</v>
       </c>
       <c r="X39" t="n">
-        <v>1039.344649258771</v>
+        <v>655.5262856551881</v>
       </c>
       <c r="Y39" t="n">
-        <v>831.5843504938168</v>
+        <v>447.7659868902342</v>
       </c>
     </row>
     <row r="40">
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>310.7695858391669</v>
+        <v>502.8772560125823</v>
       </c>
       <c r="C40" t="n">
-        <v>310.7695858391669</v>
+        <v>333.9410730846753</v>
       </c>
       <c r="D40" t="n">
-        <v>310.7695858391669</v>
+        <v>333.9410730846753</v>
       </c>
       <c r="E40" t="n">
-        <v>310.7695858391669</v>
+        <v>186.0279795022822</v>
       </c>
       <c r="F40" t="n">
-        <v>310.7695858391669</v>
+        <v>39.13803200437187</v>
       </c>
       <c r="G40" t="n">
-        <v>310.7695858391669</v>
+        <v>39.13803200437187</v>
       </c>
       <c r="H40" t="n">
-        <v>158.1429873225786</v>
+        <v>39.13803200437187</v>
       </c>
       <c r="I40" t="n">
-        <v>39.13803200437194</v>
+        <v>39.13803200437187</v>
       </c>
       <c r="J40" t="n">
-        <v>34.20956155280006</v>
+        <v>34.2095615528</v>
       </c>
       <c r="K40" t="n">
         <v>156.1085772674292</v>
       </c>
       <c r="L40" t="n">
-        <v>367.6237836228989</v>
+        <v>367.6237836228988</v>
       </c>
       <c r="M40" t="n">
-        <v>601.026035198964</v>
+        <v>601.0260351989639</v>
       </c>
       <c r="N40" t="n">
-        <v>834.3131193340867</v>
+        <v>834.3131193340864</v>
       </c>
       <c r="O40" t="n">
-        <v>1033.775204627108</v>
+        <v>1033.775204627107</v>
       </c>
       <c r="P40" t="n">
         <v>1180.92879450643</v>
@@ -7357,25 +7357,25 @@
         <v>1199.375232412102</v>
       </c>
       <c r="S40" t="n">
-        <v>995.1261148085262</v>
+        <v>1199.375232412102</v>
       </c>
       <c r="T40" t="n">
-        <v>770.2793117347089</v>
+        <v>1196.707710199244</v>
       </c>
       <c r="U40" t="n">
-        <v>637.1155315406833</v>
+        <v>907.5655217805047</v>
       </c>
       <c r="V40" t="n">
-        <v>604.6103241957559</v>
+        <v>798.1046960866006</v>
       </c>
       <c r="W40" t="n">
-        <v>537.3724350197548</v>
+        <v>730.8668069105996</v>
       </c>
       <c r="X40" t="n">
-        <v>531.562164982697</v>
+        <v>502.8772560125823</v>
       </c>
       <c r="Y40" t="n">
-        <v>310.7695858391669</v>
+        <v>502.8772560125823</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291583</v>
+        <v>955.8582442291568</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0750081497062</v>
+        <v>809.0750081497048</v>
       </c>
       <c r="D41" t="n">
-        <v>672.9885904039152</v>
+        <v>672.988590403914</v>
       </c>
       <c r="E41" t="n">
-        <v>509.3796186666307</v>
+        <v>509.3796186666298</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379829</v>
+        <v>320.5729947379818</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0727137472086</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H41" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="I41" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J41" t="n">
-        <v>256.8071369296167</v>
+        <v>89.40148790926361</v>
       </c>
       <c r="K41" t="n">
-        <v>476.1619786824767</v>
+        <v>222.8583967326099</v>
       </c>
       <c r="L41" t="n">
-        <v>678.628837002904</v>
+        <v>425.3252550530372</v>
       </c>
       <c r="M41" t="n">
-        <v>935.5816655155969</v>
+        <v>682.27808356573</v>
       </c>
       <c r="N41" t="n">
-        <v>1201.30606780837</v>
+        <v>948.0024858585026</v>
       </c>
       <c r="O41" t="n">
-        <v>1438.886824589061</v>
+        <v>1253.827535276479</v>
       </c>
       <c r="P41" t="n">
-        <v>1607.155503017355</v>
+        <v>1422.096213704773</v>
       </c>
       <c r="Q41" t="n">
-        <v>1685.345526199275</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="R41" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="S41" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="U41" t="n">
-        <v>1678.998312839059</v>
+        <v>1678.998312839056</v>
       </c>
       <c r="V41" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356445</v>
       </c>
       <c r="W41" t="n">
-        <v>1439.525331947293</v>
+        <v>1439.525331947291</v>
       </c>
       <c r="X41" t="n">
-        <v>1288.238854547173</v>
+        <v>1288.238854547171</v>
       </c>
       <c r="Y41" t="n">
-        <v>1120.278803432321</v>
+        <v>1120.278803432319</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>663.3690134737489</v>
+        <v>654.0257870140085</v>
       </c>
       <c r="C42" t="n">
-        <v>488.9159841926218</v>
+        <v>479.5727577328815</v>
       </c>
       <c r="D42" t="n">
-        <v>339.9815745313705</v>
+        <v>330.6383480716302</v>
       </c>
       <c r="E42" t="n">
-        <v>180.744119525915</v>
+        <v>171.4008930661747</v>
       </c>
       <c r="F42" t="n">
-        <v>34.20956155280003</v>
+        <v>171.4008930661747</v>
       </c>
       <c r="G42" t="n">
-        <v>34.20956155280003</v>
+        <v>171.4008930661747</v>
       </c>
       <c r="H42" t="n">
-        <v>34.20956155280003</v>
+        <v>72.59436272192363</v>
       </c>
       <c r="I42" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J42" t="n">
-        <v>173.0937728181741</v>
+        <v>83.65997955353593</v>
       </c>
       <c r="K42" t="n">
-        <v>275.2692694947594</v>
+        <v>185.8354762301213</v>
       </c>
       <c r="L42" t="n">
-        <v>698.6125937106597</v>
+        <v>369.5455819064032</v>
       </c>
       <c r="M42" t="n">
-        <v>932.3504901612582</v>
+        <v>603.2834783570017</v>
       </c>
       <c r="N42" t="n">
-        <v>1186.683378137834</v>
+        <v>1026.626802572901</v>
       </c>
       <c r="O42" t="n">
-        <v>1397.128487474889</v>
+        <v>1237.071911909956</v>
       </c>
       <c r="P42" t="n">
-        <v>1546.696174643167</v>
+        <v>1660.415236125856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="R42" t="n">
-        <v>1702.927185746515</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.927185746515</v>
+        <v>1565.068286780948</v>
       </c>
       <c r="T42" t="n">
-        <v>1702.927185746515</v>
+        <v>1565.068286780948</v>
       </c>
       <c r="U42" t="n">
-        <v>1696.982048652093</v>
+        <v>1559.123149686527</v>
       </c>
       <c r="V42" t="n">
-        <v>1501.433506192505</v>
+        <v>1323.971041454784</v>
       </c>
       <c r="W42" t="n">
-        <v>1247.196149464304</v>
+        <v>1069.733684726583</v>
       </c>
       <c r="X42" t="n">
-        <v>1039.344649258771</v>
+        <v>861.88218452105</v>
       </c>
       <c r="Y42" t="n">
-        <v>831.5843504938168</v>
+        <v>822.2411240340766</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>359.0402952180285</v>
+        <v>357.6535935005995</v>
       </c>
       <c r="C43" t="n">
-        <v>337.1677649991008</v>
+        <v>357.6535935005995</v>
       </c>
       <c r="D43" t="n">
-        <v>187.051125586765</v>
+        <v>306.0560809049716</v>
       </c>
       <c r="E43" t="n">
-        <v>39.1380320043719</v>
+        <v>158.1429873225784</v>
       </c>
       <c r="F43" t="n">
-        <v>39.1380320043719</v>
+        <v>158.1429873225784</v>
       </c>
       <c r="G43" t="n">
-        <v>39.1380320043719</v>
+        <v>158.1429873225784</v>
       </c>
       <c r="H43" t="n">
-        <v>39.1380320043719</v>
+        <v>158.1429873225784</v>
       </c>
       <c r="I43" t="n">
-        <v>39.1380320043719</v>
+        <v>39.13803200437185</v>
       </c>
       <c r="J43" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="K43" t="n">
         <v>156.1085772674292</v>
@@ -7597,22 +7597,22 @@
         <v>1199.375232412102</v>
       </c>
       <c r="T43" t="n">
-        <v>1196.707710199244</v>
+        <v>974.5284293382845</v>
       </c>
       <c r="U43" t="n">
-        <v>1129.744802641464</v>
+        <v>907.5655217805047</v>
       </c>
       <c r="V43" t="n">
-        <v>1097.239595296537</v>
+        <v>652.8810335746178</v>
       </c>
       <c r="W43" t="n">
-        <v>807.822425259576</v>
+        <v>585.6431443986169</v>
       </c>
       <c r="X43" t="n">
-        <v>579.8328743615587</v>
+        <v>357.6535935005995</v>
       </c>
       <c r="Y43" t="n">
-        <v>359.0402952180285</v>
+        <v>357.6535935005995</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.858244229158</v>
+        <v>955.8582442291566</v>
       </c>
       <c r="C44" t="n">
-        <v>809.075008149706</v>
+        <v>809.0750081497049</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039152</v>
+        <v>672.9885904039143</v>
       </c>
       <c r="E44" t="n">
-        <v>509.3796186666306</v>
+        <v>509.3796186666297</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5729947379825</v>
+        <v>320.5729947379818</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472086</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H44" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="I44" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J44" t="n">
-        <v>89.40148790926366</v>
+        <v>89.40148790926361</v>
       </c>
       <c r="K44" t="n">
-        <v>222.8583967326099</v>
+        <v>501.2945301232005</v>
       </c>
       <c r="L44" t="n">
-        <v>425.3252550530372</v>
+        <v>703.7613884436278</v>
       </c>
       <c r="M44" t="n">
-        <v>682.2780835657301</v>
+        <v>960.7142169563207</v>
       </c>
       <c r="N44" t="n">
-        <v>948.0024858585027</v>
+        <v>1226.438619249093</v>
       </c>
       <c r="O44" t="n">
-        <v>1185.583242639195</v>
+        <v>1464.019376029785</v>
       </c>
       <c r="P44" t="n">
-        <v>1422.096213704776</v>
+        <v>1632.288054458079</v>
       </c>
       <c r="Q44" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="S44" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.998312839059</v>
+        <v>1678.998312839056</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356445</v>
       </c>
       <c r="W44" t="n">
-        <v>1439.525331947293</v>
+        <v>1439.525331947291</v>
       </c>
       <c r="X44" t="n">
-        <v>1288.238854547172</v>
+        <v>1288.238854547171</v>
       </c>
       <c r="Y44" t="n">
-        <v>1120.27880343232</v>
+        <v>1120.278803432319</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>663.3690134737489</v>
+        <v>478.3556568425414</v>
       </c>
       <c r="C45" t="n">
-        <v>488.9159841926218</v>
+        <v>478.3556568425414</v>
       </c>
       <c r="D45" t="n">
-        <v>339.9815745313705</v>
+        <v>429.4765276347945</v>
       </c>
       <c r="E45" t="n">
-        <v>180.744119525915</v>
+        <v>270.239072629339</v>
       </c>
       <c r="F45" t="n">
-        <v>34.20956155280003</v>
+        <v>270.239072629339</v>
       </c>
       <c r="G45" t="n">
-        <v>34.20956155280003</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="H45" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="I45" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J45" t="n">
-        <v>48.26364783116938</v>
+        <v>48.26364783116933</v>
       </c>
       <c r="K45" t="n">
-        <v>354.8459124694471</v>
+        <v>412.2597291502075</v>
       </c>
       <c r="L45" t="n">
-        <v>538.556018145729</v>
+        <v>595.9698348264894</v>
       </c>
       <c r="M45" t="n">
-        <v>772.2939145963276</v>
+        <v>829.707731277088</v>
       </c>
       <c r="N45" t="n">
-        <v>1026.626802572903</v>
+        <v>1253.051055492988</v>
       </c>
       <c r="O45" t="n">
-        <v>1237.071911909958</v>
+        <v>1510.847548957578</v>
       </c>
       <c r="P45" t="n">
-        <v>1660.415236125859</v>
+        <v>1660.415236125856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="R45" t="n">
-        <v>1702.927185746515</v>
+        <v>1702.927185746512</v>
       </c>
       <c r="S45" t="n">
-        <v>1702.927185746515</v>
+        <v>1557.517394887462</v>
       </c>
       <c r="T45" t="n">
-        <v>1702.927185746515</v>
+        <v>1557.517394887462</v>
       </c>
       <c r="U45" t="n">
-        <v>1696.982048652093</v>
+        <v>1329.392976932081</v>
       </c>
       <c r="V45" t="n">
-        <v>1501.433506192505</v>
+        <v>1094.240868700338</v>
       </c>
       <c r="W45" t="n">
-        <v>1247.196149464304</v>
+        <v>1062.182792833096</v>
       </c>
       <c r="X45" t="n">
-        <v>1039.344649258771</v>
+        <v>854.3312926275632</v>
       </c>
       <c r="Y45" t="n">
-        <v>831.5843504938168</v>
+        <v>646.5709938626094</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>942.9325414530152</v>
+        <v>803.3988569399488</v>
       </c>
       <c r="C46" t="n">
-        <v>773.9963585251083</v>
+        <v>634.4626740120419</v>
       </c>
       <c r="D46" t="n">
-        <v>773.9963585251083</v>
+        <v>497.4363342387414</v>
       </c>
       <c r="E46" t="n">
-        <v>626.0832649427152</v>
+        <v>349.5232406563483</v>
       </c>
       <c r="F46" t="n">
-        <v>479.1933174448048</v>
+        <v>202.633293158438</v>
       </c>
       <c r="G46" t="n">
-        <v>310.7695858391669</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1429873225785</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="I46" t="n">
-        <v>39.1380320043719</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="J46" t="n">
-        <v>34.20956155280003</v>
+        <v>34.20956155279998</v>
       </c>
       <c r="K46" t="n">
         <v>156.1085772674292</v>
@@ -7831,25 +7831,25 @@
         <v>1199.375232412102</v>
       </c>
       <c r="S46" t="n">
-        <v>1118.116337781639</v>
+        <v>1199.375232412102</v>
       </c>
       <c r="T46" t="n">
-        <v>1115.448815568781</v>
+        <v>1196.707710199244</v>
       </c>
       <c r="U46" t="n">
-        <v>1048.485908011001</v>
+        <v>1129.744802641465</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.980700666074</v>
+        <v>1097.239595296537</v>
       </c>
       <c r="W46" t="n">
-        <v>948.742811490073</v>
+        <v>1030.001706120536</v>
       </c>
       <c r="X46" t="n">
-        <v>942.9325414530152</v>
+        <v>1024.191436083479</v>
       </c>
       <c r="Y46" t="n">
-        <v>942.9325414530152</v>
+        <v>803.3988569399488</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.33000427628926</v>
+        <v>40.3300042762892</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>201.7639107259816</v>
+        <v>201.7639107259807</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.33000427628695</v>
+        <v>40.3300042762892</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>201.7639107259789</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>120.4910082414181</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>81.27290248456268</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>171.0241302356775</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.7639107259807</v>
+        <v>30.73978049030441</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>201.7639107259818</v>
       </c>
       <c r="L21" t="n">
-        <v>171.0241302356772</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>30.73978049030345</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.3300042762892</v>
+        <v>40.3300042762901</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>75.67287538557318</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>120.4910082414183</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>81.27290248456336</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9884,10 +9884,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>264.1789544291568</v>
       </c>
       <c r="O26" t="n">
-        <v>289.5653700258507</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>40.3300042762892</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>344.122782344806</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>119.4705639847432</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>285.0446134628319</v>
+        <v>187.8384758760427</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>40.3300042762892</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,19 +10194,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>79.65754533222713</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>303.2555955256236</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,22 +10355,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>79.69838957228575</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>319.5639389978368</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>40.3300042762892</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>79.65754533222713</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>76.35149840848504</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>113.1774118054402</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>223.1075413085583</v>
       </c>
       <c r="M35" t="n">
-        <v>168.0712077810176</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>32.75466268120496</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.3300042762892</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>146.8442072361812</v>
+        <v>240.9587742118134</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>242.0537561006243</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>112.1520044143857</v>
+        <v>159.2110322455831</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>122.0375873408734</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10905,22 +10905,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>242.0537561006242</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>114.8677388714046</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>146.8442072361831</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>86.76558881769063</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>68.93362892655054</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>40.3300042762892</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>35.75387042663294</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>242.0537561006246</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>170.7176123629537</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>276.54104752285</v>
       </c>
       <c r="Q42" t="n">
-        <v>114.8677388714057</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>281.2486195864552</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>68.93362892655296</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>40.3300042762892</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>206.4714827895882</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>170.7176123629536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>47.82968093690437</v>
       </c>
       <c r="P45" t="n">
-        <v>276.5410475228506</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>192.7384057326678</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>226.8947259232953</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>279.0877300443237</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1136930274267</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>17.65528330212899</v>
       </c>
       <c r="T11" t="n">
-        <v>83.09443458014329</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>123.3341395078952</v>
+        <v>123.3341395078953</v>
       </c>
       <c r="V11" t="n">
-        <v>199.9639427727471</v>
+        <v>199.9639427727473</v>
       </c>
       <c r="W11" t="n">
-        <v>113.4452103262228</v>
+        <v>221.4526530200254</v>
       </c>
       <c r="X11" t="n">
-        <v>241.9427849810813</v>
+        <v>241.9427849810814</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.4496229586658</v>
+        <v>258.4496229586659</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>237.4845760736199</v>
       </c>
       <c r="D14" t="n">
-        <v>226.8947259232953</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.624712705242587</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>139.3668900275964</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>284.7244505358285</v>
       </c>
       <c r="H14" t="n">
-        <v>183.1136930274267</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212896</v>
+        <v>17.65528330212904</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078953</v>
+        <v>123.3341395078954</v>
       </c>
       <c r="V14" t="n">
-        <v>199.9639427727472</v>
+        <v>199.9639427727473</v>
       </c>
       <c r="W14" t="n">
-        <v>221.4526530200253</v>
+        <v>221.4526530200254</v>
       </c>
       <c r="X14" t="n">
-        <v>241.9427849810813</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>258.4496229586659</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1146051.595509813</v>
+        <v>1146051.595509814</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1334854.078761975</v>
+        <v>1334854.078761976</v>
       </c>
     </row>
     <row r="8">
@@ -26314,16 +26314,16 @@
         <v>122891.4508075557</v>
       </c>
       <c r="C2" t="n">
-        <v>122891.4508075558</v>
+        <v>122891.4508075557</v>
       </c>
       <c r="D2" t="n">
         <v>122891.4508075558</v>
       </c>
       <c r="E2" t="n">
+        <v>105456.0326747523</v>
+      </c>
+      <c r="F2" t="n">
         <v>105456.0326747522</v>
-      </c>
-      <c r="F2" t="n">
-        <v>105456.0326747523</v>
       </c>
       <c r="G2" t="n">
         <v>123156.2654796425</v>
@@ -26335,13 +26335,13 @@
         <v>123156.2654796426</v>
       </c>
       <c r="J2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796427</v>
       </c>
       <c r="K2" t="n">
         <v>123156.2654796426</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796427</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26353,7 +26353,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>766266.5351224332</v>
+        <v>766266.5351224334</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92112.12268774906</v>
+        <v>92112.12268774895</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111884.0815365101</v>
+        <v>111884.08153651</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>92112.12268774894</v>
       </c>
       <c r="M3" t="n">
-        <v>83853.867754131</v>
+        <v>83853.86775413103</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>161029.3996972913</v>
+        <v>161029.3996972911</v>
       </c>
       <c r="F4" t="n">
         <v>161029.3996972911</v>
@@ -26442,16 +26442,16 @@
         <v>226936.6235532808</v>
       </c>
       <c r="K4" t="n">
-        <v>226936.6235532808</v>
+        <v>226936.6235532809</v>
       </c>
       <c r="L4" t="n">
-        <v>226936.6235532808</v>
+        <v>226936.6235532809</v>
       </c>
       <c r="M4" t="n">
         <v>228109.4307260193</v>
       </c>
       <c r="N4" t="n">
-        <v>228109.4307260194</v>
+        <v>228109.4307260193</v>
       </c>
       <c r="O4" t="n">
         <v>228109.4307260193</v>
@@ -26479,13 +26479,13 @@
         <v>47553.01820892903</v>
       </c>
       <c r="F5" t="n">
-        <v>47553.018208929</v>
+        <v>47553.01820892902</v>
       </c>
       <c r="G5" t="n">
-        <v>57232.73576172449</v>
+        <v>57232.7357617245</v>
       </c>
       <c r="H5" t="n">
-        <v>57232.73576172449</v>
+        <v>57232.7357617245</v>
       </c>
       <c r="I5" t="n">
         <v>57232.7357617245</v>
@@ -26500,16 +26500,16 @@
         <v>72488.96662948883</v>
       </c>
       <c r="M5" t="n">
-        <v>59620.18961222716</v>
+        <v>59620.18961222714</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.18961222719</v>
+        <v>59620.18961222715</v>
       </c>
       <c r="O5" t="n">
-        <v>59620.18961222716</v>
+        <v>59620.18961222713</v>
       </c>
       <c r="P5" t="n">
-        <v>59620.18961222716</v>
+        <v>59620.18961222713</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-373886.880294554</v>
+        <v>-373891.2938724222</v>
       </c>
       <c r="C6" t="n">
-        <v>-373886.880294554</v>
+        <v>-373891.2938724222</v>
       </c>
       <c r="D6" t="n">
-        <v>-373886.880294554</v>
+        <v>-373891.2938724221</v>
       </c>
       <c r="E6" t="n">
-        <v>-869392.9203539012</v>
+        <v>-869687.9242339827</v>
       </c>
       <c r="F6" t="n">
-        <v>-103126.3852314676</v>
+        <v>-103421.3891115494</v>
       </c>
       <c r="G6" t="n">
-        <v>-254569.3934332766</v>
+        <v>-254569.3934332764</v>
       </c>
       <c r="H6" t="n">
-        <v>-162457.2707455274</v>
+        <v>-162457.2707455275</v>
       </c>
       <c r="I6" t="n">
         <v>-162457.2707455275</v>
       </c>
       <c r="J6" t="n">
-        <v>-288153.4062396371</v>
+        <v>-288153.406239637</v>
       </c>
       <c r="K6" t="n">
         <v>-176269.3247031271</v>
       </c>
       <c r="L6" t="n">
-        <v>-268381.4473908759</v>
+        <v>-268381.447390876</v>
       </c>
       <c r="M6" t="n">
         <v>-248427.2226127349</v>
       </c>
       <c r="N6" t="n">
-        <v>-164573.3548586041</v>
+        <v>-164573.354858604</v>
       </c>
       <c r="O6" t="n">
         <v>-164573.3548586039</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G2" t="n">
         <v>242.9284690570738</v>
@@ -26707,7 +26707,7 @@
         <v>242.9284690570738</v>
       </c>
       <c r="J2" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K2" t="n">
         <v>115.1401533596862</v>
@@ -26716,16 +26716,16 @@
         <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="N2" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="O2" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="P2" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>694.0053563773452</v>
+        <v>694.0053563773454</v>
       </c>
       <c r="F3" t="n">
         <v>694.0053563773454</v>
@@ -26799,37 +26799,37 @@
         <v>356.5898935450529</v>
       </c>
       <c r="F4" t="n">
-        <v>356.5898935450525</v>
+        <v>356.5898935450529</v>
       </c>
       <c r="G4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450532</v>
       </c>
       <c r="H4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450532</v>
       </c>
       <c r="I4" t="n">
-        <v>356.5898935450531</v>
+        <v>356.5898935450533</v>
       </c>
       <c r="J4" t="n">
-        <v>784.2094129550533</v>
+        <v>784.2094129550532</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550533</v>
+        <v>784.2094129550532</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550533</v>
+        <v>784.2094129550532</v>
       </c>
       <c r="M4" t="n">
-        <v>427.6195194100003</v>
+        <v>427.61951941</v>
       </c>
       <c r="N4" t="n">
-        <v>427.6195194100007</v>
+        <v>427.61951941</v>
       </c>
       <c r="O4" t="n">
-        <v>427.6195194100003</v>
+        <v>427.6195194099997</v>
       </c>
       <c r="P4" t="n">
-        <v>427.6195194100003</v>
+        <v>427.6195194099997</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
-        <v>104.8173346926637</v>
+        <v>104.8173346926638</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>694.0053563773452</v>
+        <v>694.0053563773454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.589893545053</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194100001</v>
+        <v>427.6195194099999</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.589893545053</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I11" t="n">
-        <v>102.9155217242246</v>
+        <v>102.9155217242245</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C12" t="n">
-        <v>127.7883156973878</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E12" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F12" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G12" t="n">
-        <v>114.80857694292</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.00095315743242</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.475382974551607</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>127.7883156973878</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>127.7883156973878</v>
+        <v>114.252857416619</v>
       </c>
       <c r="Y12" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="13">
@@ -28245,31 +28245,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G13" t="n">
-        <v>112.4259876766424</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I13" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J13" t="n">
-        <v>4.879185747056184</v>
+        <v>4.879185747056155</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28296,25 +28296,25 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7883156973878</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>127.7883156973878</v>
+        <v>112.4259876766435</v>
       </c>
       <c r="U13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.7883156973878</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="E14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="I14" t="n">
         <v>102.9155217242245</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="15">
@@ -28406,19 +28406,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>24.46549487666545</v>
+        <v>24.46549487666431</v>
       </c>
       <c r="D15" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="H15" t="n">
         <v>97.81846504080859</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y15" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.305173423699</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="I16" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4.879185747056155</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28533,25 +28533,25 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7883156973877</v>
+        <v>112.4259876766439</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="V16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973876</v>
       </c>
     </row>
     <row r="17">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>84.65743181004727</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H18" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>38.00095315743242</v>
@@ -28697,13 +28697,13 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>50.46510356902135</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28731,10 +28731,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7394942895816</v>
+        <v>165.4344287703206</v>
       </c>
       <c r="H19" t="n">
         <v>151.1003325314225</v>
@@ -28743,7 +28743,7 @@
         <v>117.8149057650245</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.879185747056155</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S19" t="n">
-        <v>202.20662642754</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>222.598335043079</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="W19" t="n">
-        <v>62.10805424204122</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -28883,22 +28883,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.00095315743242</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>143.9556929504599</v>
+        <v>43.18772653750507</v>
       </c>
       <c r="T21" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U21" t="n">
-        <v>84.65743181004717</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -29007,22 +29007,22 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>187.5303353793283</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>184.4190150333703</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>242.9284690570738</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29126,16 +29126,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.00095315743242</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.259323598857851</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>143.9556929504599</v>
       </c>
       <c r="T24" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8431737758271</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>65.26474652579878</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -29205,10 +29205,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7394942895816</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>151.1003325314225</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.879185747056155</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>242.9284690570738</v>
       </c>
       <c r="W25" t="n">
-        <v>218.8964470269622</v>
+        <v>59.81021274878438</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I26" t="n">
         <v>102.9155217242245</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="27">
@@ -29430,31 +29430,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J28" t="n">
-        <v>48.22200778664142</v>
+        <v>48.22200778664074</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.1401533596861</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="29">
@@ -29691,7 +29691,7 @@
         <v>115.1401533596862</v>
       </c>
       <c r="J31" t="n">
-        <v>48.22200778664073</v>
+        <v>4.879185747056155</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>43.34282203958335</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29940,13 +29940,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>43.34282203958381</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>43.34282203958438</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="C35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="D35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="E35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="F35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="G35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="H35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="I35" t="n">
         <v>102.9155217242245</v>
@@ -30040,19 +30040,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
     </row>
     <row r="36">
@@ -30077,10 +30077,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>38.00095315743242</v>
@@ -30113,25 +30113,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>143.9556929504599</v>
+        <v>5.376758049886007</v>
       </c>
       <c r="T36" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U36" t="n">
-        <v>219.9574880523499</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>39.20753011443304</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30153,16 +30153,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H37" t="n">
-        <v>48.19077843980664</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>4.879185747056155</v>
@@ -30189,25 +30189,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>41.41602773733479</v>
       </c>
       <c r="U37" t="n">
-        <v>219.9574880523499</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W37" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X37" t="n">
-        <v>219.9574880523499</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I38" t="n">
         <v>102.9155217242245</v>
@@ -30277,19 +30277,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="39">
@@ -30302,13 +30302,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30317,7 +30317,7 @@
         <v>135.850750924965</v>
       </c>
       <c r="H39" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>38.00095315743242</v>
@@ -30350,16 +30350,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>219.9574880523499</v>
+        <v>217.2883643491343</v>
       </c>
       <c r="V39" t="n">
-        <v>39.20753011443122</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30381,25 +30381,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.7394942895816</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U40" t="n">
-        <v>154.4186241424668</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>219.9574880523499</v>
+        <v>143.771425886863</v>
       </c>
       <c r="W40" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X40" t="n">
-        <v>219.9574880523499</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I41" t="n">
         <v>102.9155217242245</v>
@@ -30514,19 +30514,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="42">
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H42" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>38.00095315743242</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,19 +30584,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>7.475382974551579</v>
       </c>
       <c r="S42" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U42" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V42" t="n">
-        <v>39.20753011443304</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>166.4380458952007</v>
       </c>
     </row>
     <row r="43">
@@ -30618,10 +30618,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>145.5930161818894</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.53393554854068</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -30636,7 +30636,7 @@
         <v>151.1003325314225</v>
       </c>
       <c r="I43" t="n">
-        <v>117.8149057650245</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30669,22 +30669,22 @@
         <v>202.20662642754</v>
       </c>
       <c r="T43" t="n">
-        <v>219.9574880523499</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V43" t="n">
-        <v>219.9574880523499</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I44" t="n">
         <v>102.9155217242245</v>
@@ -30751,19 +30751,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="45">
@@ -30776,22 +30776,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>99.05472764896936</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>38.00095315743242</v>
@@ -30824,19 +30824,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>219.9574880523499</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>39.20753011443304</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>12.95939664264489</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -30870,13 +30870,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.1003325314225</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.879185747056155</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S46" t="n">
-        <v>121.7603207433819</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T46" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U46" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V46" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W46" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X46" t="n">
-        <v>219.9574880523499</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.789971281918973</v>
+        <v>2.789971281918974</v>
       </c>
       <c r="H11" t="n">
-        <v>28.57279339095269</v>
+        <v>28.5727933909527</v>
       </c>
       <c r="I11" t="n">
-        <v>107.5603678461813</v>
+        <v>107.5603678461814</v>
       </c>
       <c r="J11" t="n">
-        <v>236.7953250887707</v>
+        <v>236.7953250887708</v>
       </c>
       <c r="K11" t="n">
-        <v>354.8948094524009</v>
+        <v>354.894809452401</v>
       </c>
       <c r="L11" t="n">
-        <v>440.2783930714288</v>
+        <v>440.2783930714289</v>
       </c>
       <c r="M11" t="n">
-        <v>489.8945448562553</v>
+        <v>489.8945448562554</v>
       </c>
       <c r="N11" t="n">
-        <v>497.8215507610076</v>
+        <v>497.8215507610078</v>
       </c>
       <c r="O11" t="n">
-        <v>470.0787738264258</v>
+        <v>470.078773826426</v>
       </c>
       <c r="P11" t="n">
-        <v>401.2013578040511</v>
+        <v>401.2013578040512</v>
       </c>
       <c r="Q11" t="n">
-        <v>301.2855112703277</v>
+        <v>301.2855112703278</v>
       </c>
       <c r="R11" t="n">
         <v>175.2555335378429</v>
       </c>
       <c r="S11" t="n">
-        <v>63.57647058672867</v>
+        <v>63.57647058672869</v>
       </c>
       <c r="T11" t="n">
-        <v>12.21309928660031</v>
+        <v>12.21309928660032</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2231977025535178</v>
+        <v>0.2231977025535179</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.49276623824561</v>
+        <v>1.492766238245611</v>
       </c>
       <c r="H12" t="n">
-        <v>14.41697919568787</v>
+        <v>14.41697919568788</v>
       </c>
       <c r="I12" t="n">
-        <v>51.39567969398264</v>
+        <v>51.39567969398266</v>
       </c>
       <c r="J12" t="n">
         <v>141.0336734124943</v>
       </c>
       <c r="K12" t="n">
-        <v>241.0490113749502</v>
+        <v>241.0490113749503</v>
       </c>
       <c r="L12" t="n">
-        <v>324.1201430892498</v>
+        <v>324.1201430892499</v>
       </c>
       <c r="M12" t="n">
-        <v>378.2329192256531</v>
+        <v>378.2329192256532</v>
       </c>
       <c r="N12" t="n">
-        <v>388.2436191303792</v>
+        <v>388.2436191303793</v>
       </c>
       <c r="O12" t="n">
-        <v>355.1670619566211</v>
+        <v>355.1670619566213</v>
       </c>
       <c r="P12" t="n">
-        <v>285.0528793014798</v>
+        <v>285.0528793014799</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.5503008679835</v>
+        <v>190.5503008679836</v>
       </c>
       <c r="R12" t="n">
-        <v>92.68245117809153</v>
+        <v>92.68245117809155</v>
       </c>
       <c r="S12" t="n">
         <v>27.72747815337788</v>
       </c>
       <c r="T12" t="n">
-        <v>6.016895495384717</v>
+        <v>6.016895495384719</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09820830514773757</v>
+        <v>0.0982083051477376</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,16 +31911,16 @@
         <v>1.25148506887718</v>
       </c>
       <c r="H13" t="n">
-        <v>11.12683997601711</v>
+        <v>11.12683997601712</v>
       </c>
       <c r="I13" t="n">
-        <v>37.63556916223374</v>
+        <v>37.63556916223375</v>
       </c>
       <c r="J13" t="n">
-        <v>88.47999436961659</v>
+        <v>88.47999436961662</v>
       </c>
       <c r="K13" t="n">
-        <v>145.3998107295486</v>
+        <v>145.3998107295487</v>
       </c>
       <c r="L13" t="n">
         <v>186.0616983310673</v>
@@ -31929,28 +31929,28 @@
         <v>196.1759731149928</v>
       </c>
       <c r="N13" t="n">
-        <v>191.511346949178</v>
+        <v>191.5113469491781</v>
       </c>
       <c r="O13" t="n">
-        <v>176.8917259172945</v>
+        <v>176.8917259172946</v>
       </c>
       <c r="P13" t="n">
-        <v>151.3614305121999</v>
+        <v>151.3614305122</v>
       </c>
       <c r="Q13" t="n">
-        <v>104.7948088129791</v>
+        <v>104.7948088129792</v>
       </c>
       <c r="R13" t="n">
-        <v>56.2713195515139</v>
+        <v>56.27131955151392</v>
       </c>
       <c r="S13" t="n">
         <v>21.8099716094323</v>
       </c>
       <c r="T13" t="n">
-        <v>5.347254385202493</v>
+        <v>5.347254385202495</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06826282193875534</v>
+        <v>0.06826282193875535</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.7494205620844</v>
+        <v>55.74942056208448</v>
       </c>
       <c r="K11" t="n">
-        <v>134.8049584074204</v>
+        <v>134.8049584074205</v>
       </c>
       <c r="L11" t="n">
-        <v>204.5119781014415</v>
+        <v>204.5119781014417</v>
       </c>
       <c r="M11" t="n">
-        <v>259.5483116289826</v>
+        <v>259.5483116289827</v>
       </c>
       <c r="N11" t="n">
-        <v>268.4084871644167</v>
+        <v>268.4084871644168</v>
       </c>
       <c r="O11" t="n">
-        <v>239.9805624047391</v>
+        <v>239.9805624047392</v>
       </c>
       <c r="P11" t="n">
-        <v>169.9683620487816</v>
+        <v>169.9683620487817</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.97982139587825</v>
+        <v>78.97982139587836</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.1960467458276</v>
+        <v>14.19604674582763</v>
       </c>
       <c r="K12" t="n">
-        <v>103.2075724005912</v>
+        <v>103.2075724005913</v>
       </c>
       <c r="L12" t="n">
-        <v>185.5657633093756</v>
+        <v>185.5657633093757</v>
       </c>
       <c r="M12" t="n">
-        <v>236.0988853036347</v>
+        <v>236.0988853036349</v>
       </c>
       <c r="N12" t="n">
-        <v>256.9019070470458</v>
+        <v>256.9019070470461</v>
       </c>
       <c r="O12" t="n">
-        <v>212.5708175121767</v>
+        <v>212.5708175121769</v>
       </c>
       <c r="P12" t="n">
-        <v>151.0784718871495</v>
+        <v>151.0784718871496</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.3324375079437</v>
+        <v>252.3324375079428</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>123.1303189036658</v>
+        <v>123.1303189036659</v>
       </c>
       <c r="L13" t="n">
-        <v>213.6517235913834</v>
+        <v>213.6517235913835</v>
       </c>
       <c r="M13" t="n">
         <v>235.7598500768334</v>
       </c>
       <c r="N13" t="n">
-        <v>235.6435193284066</v>
+        <v>235.6435193284067</v>
       </c>
       <c r="O13" t="n">
         <v>201.4768538313342</v>
       </c>
       <c r="P13" t="n">
-        <v>148.6399897770934</v>
+        <v>148.6399897770935</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.63276556128473</v>
+        <v>18.63276556128477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>14.19604674582763</v>
       </c>
       <c r="K15" t="n">
-        <v>304.9714831265701</v>
+        <v>103.2075724005913</v>
       </c>
       <c r="L15" t="n">
         <v>185.5657633093757</v>
       </c>
       <c r="M15" t="n">
-        <v>236.0988853036349</v>
+        <v>356.5898935450529</v>
       </c>
       <c r="N15" t="n">
         <v>256.9019070470461</v>
@@ -35744,7 +35744,7 @@
         <v>151.0784718871496</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.56852678196208</v>
+        <v>131.8414292665248</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>103.2075724005913</v>
       </c>
       <c r="L18" t="n">
-        <v>185.5657633093757</v>
+        <v>356.5898935450532</v>
       </c>
       <c r="M18" t="n">
         <v>236.0988853036349</v>
@@ -35981,7 +35981,7 @@
         <v>151.0784718871496</v>
       </c>
       <c r="Q18" t="n">
-        <v>252.3324375079428</v>
+        <v>81.30830727226649</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>259.5483116289827</v>
       </c>
       <c r="N20" t="n">
-        <v>268.4084871644168</v>
+        <v>268.4084871644174</v>
       </c>
       <c r="O20" t="n">
         <v>239.9805624047392</v>
@@ -36200,10 +36200,10 @@
         <v>14.19604674582763</v>
       </c>
       <c r="K21" t="n">
-        <v>103.2075724005913</v>
+        <v>304.971483126573</v>
       </c>
       <c r="L21" t="n">
-        <v>356.5898935450529</v>
+        <v>185.5657633093757</v>
       </c>
       <c r="M21" t="n">
         <v>236.0988853036349</v>
@@ -36212,7 +36212,7 @@
         <v>256.9019070470461</v>
       </c>
       <c r="O21" t="n">
-        <v>243.3105980024803</v>
+        <v>212.5708175121769</v>
       </c>
       <c r="P21" t="n">
         <v>151.0784718871496</v>
@@ -36364,7 +36364,7 @@
         <v>204.5119781014417</v>
       </c>
       <c r="M23" t="n">
-        <v>259.548311628983</v>
+        <v>259.5483116289827</v>
       </c>
       <c r="N23" t="n">
         <v>268.4084871644168</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.19604674582763</v>
+        <v>140.2870820862365</v>
       </c>
       <c r="K24" t="n">
-        <v>103.2075724005913</v>
+        <v>178.8804477861644</v>
       </c>
       <c r="L24" t="n">
         <v>185.5657633093757</v>
       </c>
       <c r="M24" t="n">
-        <v>356.5898935450531</v>
+        <v>236.0988853036349</v>
       </c>
       <c r="N24" t="n">
-        <v>338.1748095316094</v>
+        <v>256.9019070470461</v>
       </c>
       <c r="O24" t="n">
         <v>212.5708175121769</v>
@@ -36604,10 +36604,10 @@
         <v>709.0618451218152</v>
       </c>
       <c r="N26" t="n">
-        <v>268.4084871644168</v>
+        <v>532.5874415935737</v>
       </c>
       <c r="O26" t="n">
-        <v>529.5459324305899</v>
+        <v>239.9805624047392</v>
       </c>
       <c r="P26" t="n">
         <v>169.9683620487817</v>
@@ -36616,7 +36616,7 @@
         <v>291.294812055783</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>25.38641559669324</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>140.2870820862365</v>
       </c>
       <c r="K27" t="n">
-        <v>103.2075724005913</v>
+        <v>367.6728094131698</v>
       </c>
       <c r="L27" t="n">
-        <v>556.4061086128349</v>
+        <v>185.5657633093757</v>
       </c>
       <c r="M27" t="n">
-        <v>236.0988853036349</v>
+        <v>701.8039490536348</v>
       </c>
       <c r="N27" t="n">
-        <v>601.024689391852</v>
+        <v>256.9019070470461</v>
       </c>
       <c r="O27" t="n">
-        <v>212.5708175121769</v>
+        <v>606.4331367889064</v>
       </c>
       <c r="P27" t="n">
-        <v>469.5412405270868</v>
+        <v>270.5490358718928</v>
       </c>
       <c r="Q27" t="n">
-        <v>260.6458145178112</v>
+        <v>50.56852678196208</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.34282203958526</v>
+        <v>43.34282203958458</v>
       </c>
       <c r="K28" t="n">
         <v>123.1303189036659</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>224.8460357341582</v>
+        <v>55.74942056208448</v>
       </c>
       <c r="K29" t="n">
-        <v>458.9503709785852</v>
+        <v>134.8049584074205</v>
       </c>
       <c r="L29" t="n">
-        <v>489.5565915642736</v>
+        <v>392.3504539774843</v>
       </c>
       <c r="M29" t="n">
-        <v>259.5483116289827</v>
+        <v>709.0618451218152</v>
       </c>
       <c r="N29" t="n">
-        <v>268.4084871644168</v>
+        <v>705.755411576401</v>
       </c>
       <c r="O29" t="n">
         <v>620.7807436674846</v>
       </c>
       <c r="P29" t="n">
-        <v>491.7670702202643</v>
+        <v>169.9683620487817</v>
       </c>
       <c r="Q29" t="n">
         <v>291.294812055783</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>25.38641559669324</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>367.6728094131698</v>
       </c>
       <c r="L30" t="n">
-        <v>556.4061086128349</v>
+        <v>185.5657633093757</v>
       </c>
       <c r="M30" t="n">
-        <v>315.756430635862</v>
+        <v>701.8039490536348</v>
       </c>
       <c r="N30" t="n">
-        <v>256.9019070470461</v>
+        <v>560.1575025726696</v>
       </c>
       <c r="O30" t="n">
         <v>212.5708175121769</v>
       </c>
       <c r="P30" t="n">
-        <v>469.5412405270868</v>
+        <v>151.0784718871496</v>
       </c>
       <c r="Q30" t="n">
         <v>260.6458145178112</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.34282203958458</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>123.1303189036659</v>
@@ -36996,7 +36996,7 @@
         <v>213.6517235913835</v>
       </c>
       <c r="M31" t="n">
-        <v>235.7598500768334</v>
+        <v>279.1026721164168</v>
       </c>
       <c r="N31" t="n">
         <v>235.6435193284067</v>
@@ -37075,22 +37075,22 @@
         <v>622.1731926518921</v>
       </c>
       <c r="M32" t="n">
-        <v>259.5483116289827</v>
+        <v>339.2467012012684</v>
       </c>
       <c r="N32" t="n">
-        <v>705.755411576401</v>
+        <v>268.4084871644168</v>
       </c>
       <c r="O32" t="n">
-        <v>559.544501402576</v>
+        <v>620.7807436674846</v>
       </c>
       <c r="P32" t="n">
-        <v>169.9683620487817</v>
+        <v>491.7670702202643</v>
       </c>
       <c r="Q32" t="n">
         <v>78.97982139587836</v>
       </c>
       <c r="R32" t="n">
-        <v>25.38641559669324</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>140.2870820862365</v>
+        <v>14.19604674582763</v>
       </c>
       <c r="K33" t="n">
-        <v>367.6728094131698</v>
+        <v>103.2075724005913</v>
       </c>
       <c r="L33" t="n">
         <v>556.4061086128349</v>
       </c>
       <c r="M33" t="n">
-        <v>315.756430635862</v>
+        <v>236.0988853036349</v>
       </c>
       <c r="N33" t="n">
-        <v>256.9019070470461</v>
+        <v>333.2534054555311</v>
       </c>
       <c r="O33" t="n">
-        <v>212.5708175121769</v>
+        <v>606.4331367889064</v>
       </c>
       <c r="P33" t="n">
         <v>469.5412405270868</v>
@@ -37236,13 +37236,13 @@
         <v>235.7598500768334</v>
       </c>
       <c r="N34" t="n">
-        <v>235.6435193284067</v>
+        <v>278.9863413679905</v>
       </c>
       <c r="O34" t="n">
         <v>201.4768538313342</v>
       </c>
       <c r="P34" t="n">
-        <v>191.9828118166778</v>
+        <v>148.6399897770935</v>
       </c>
       <c r="Q34" t="n">
         <v>18.63276556128477</v>
@@ -37306,13 +37306,13 @@
         <v>55.74942056208448</v>
       </c>
       <c r="K35" t="n">
-        <v>247.9823702128606</v>
+        <v>134.8049584074205</v>
       </c>
       <c r="L35" t="n">
-        <v>204.5119781014417</v>
+        <v>427.61951941</v>
       </c>
       <c r="M35" t="n">
-        <v>427.6195194100003</v>
+        <v>259.5483116289827</v>
       </c>
       <c r="N35" t="n">
         <v>268.4084871644168</v>
@@ -37321,13 +37321,13 @@
         <v>239.9805624047392</v>
       </c>
       <c r="P35" t="n">
-        <v>169.9683620487817</v>
+        <v>202.7230247299866</v>
       </c>
       <c r="Q35" t="n">
         <v>78.97982139587836</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>25.38641559669324</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>140.2870820862365</v>
+        <v>14.19604674582763</v>
       </c>
       <c r="K36" t="n">
-        <v>250.0517796367725</v>
+        <v>344.1663466124047</v>
       </c>
       <c r="L36" t="n">
-        <v>185.5657633093757</v>
+        <v>427.61951941</v>
       </c>
       <c r="M36" t="n">
         <v>236.0988853036349</v>
@@ -37403,7 +37403,7 @@
         <v>151.0784718871496</v>
       </c>
       <c r="Q36" t="n">
-        <v>260.6458145178112</v>
+        <v>50.56852678196208</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>224.8460357341582</v>
+        <v>55.74942056208448</v>
       </c>
       <c r="K38" t="n">
         <v>134.8049584074205</v>
@@ -37552,10 +37552,10 @@
         <v>259.5483116289827</v>
       </c>
       <c r="N38" t="n">
-        <v>380.5604915788026</v>
+        <v>427.61951941</v>
       </c>
       <c r="O38" t="n">
-        <v>239.9805624047392</v>
+        <v>362.0181497456127</v>
       </c>
       <c r="P38" t="n">
         <v>169.9683620487817</v>
@@ -37625,22 +37625,22 @@
         <v>103.2075724005913</v>
       </c>
       <c r="L39" t="n">
-        <v>185.5657633093757</v>
+        <v>427.61951941</v>
       </c>
       <c r="M39" t="n">
         <v>236.0988853036349</v>
       </c>
       <c r="N39" t="n">
-        <v>256.9019070470461</v>
+        <v>371.7696459184506</v>
       </c>
       <c r="O39" t="n">
         <v>212.5708175121769</v>
       </c>
       <c r="P39" t="n">
-        <v>297.9226791233328</v>
+        <v>151.0784718871496</v>
       </c>
       <c r="Q39" t="n">
-        <v>260.6458145178112</v>
+        <v>50.56852678196208</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>224.8460357341582</v>
+        <v>55.74942056208448</v>
       </c>
       <c r="K41" t="n">
-        <v>221.5705472251111</v>
+        <v>134.8049584074205</v>
       </c>
       <c r="L41" t="n">
         <v>204.5119781014417</v>
@@ -37792,16 +37792,16 @@
         <v>268.4084871644168</v>
       </c>
       <c r="O41" t="n">
-        <v>239.9805624047392</v>
+        <v>308.9141913312898</v>
       </c>
       <c r="P41" t="n">
         <v>169.9683620487817</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.97982139587836</v>
+        <v>291.294812055783</v>
       </c>
       <c r="R41" t="n">
-        <v>25.38641559669324</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>140.2870820862365</v>
+        <v>49.94991717246057</v>
       </c>
       <c r="K42" t="n">
         <v>103.2075724005913</v>
       </c>
       <c r="L42" t="n">
-        <v>427.6195194100003</v>
+        <v>185.5657633093757</v>
       </c>
       <c r="M42" t="n">
         <v>236.0988853036349</v>
       </c>
       <c r="N42" t="n">
-        <v>256.9019070470461</v>
+        <v>427.6195194099997</v>
       </c>
       <c r="O42" t="n">
         <v>212.5708175121769</v>
       </c>
       <c r="P42" t="n">
-        <v>151.0784718871496</v>
+        <v>427.6195194099997</v>
       </c>
       <c r="Q42" t="n">
-        <v>165.4362656533678</v>
+        <v>50.56852678196208</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>55.74942056208448</v>
       </c>
       <c r="K44" t="n">
-        <v>134.8049584074205</v>
+        <v>416.0535779938756</v>
       </c>
       <c r="L44" t="n">
         <v>204.5119781014417</v>
@@ -38032,10 +38032,10 @@
         <v>239.9805624047392</v>
       </c>
       <c r="P44" t="n">
-        <v>238.9019909753346</v>
+        <v>169.9683620487817</v>
       </c>
       <c r="Q44" t="n">
-        <v>291.294812055783</v>
+        <v>78.97982139587836</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>14.19604674582763</v>
       </c>
       <c r="K45" t="n">
-        <v>309.6790551901795</v>
+        <v>367.6728094131698</v>
       </c>
       <c r="L45" t="n">
         <v>185.5657633093757</v>
@@ -38105,13 +38105,13 @@
         <v>236.0988853036349</v>
       </c>
       <c r="N45" t="n">
-        <v>256.9019070470461</v>
+        <v>427.6195194099997</v>
       </c>
       <c r="O45" t="n">
-        <v>212.5708175121769</v>
+        <v>260.4004984490812</v>
       </c>
       <c r="P45" t="n">
-        <v>427.6195194100003</v>
+        <v>151.0784718871496</v>
       </c>
       <c r="Q45" t="n">
         <v>50.56852678196208</v>
